--- a/codigo/assets/script/pedidos_mock.xlsx
+++ b/codigo/assets/script/pedidos_mock.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\Sprint-04\icei-pucminas-psg-si-n-tiaw-2024-1-grupo-1-reserva-de-lanches\codigo\assets\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70612EC8-A676-4F1B-BE28-C25678BA65FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E349590-1E5A-4071-BF05-541DFC044B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{4D1AFED7-1EDD-46E3-A830-15DC2F3F764B}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{4D1AFED7-1EDD-46E3-A830-15DC2F3F764B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -37,12 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="36">
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>Usuário</t>
   </si>
   <si>
     <t>Produtos</t>
@@ -123,19 +120,31 @@
     <t>Balas</t>
   </si>
   <si>
-    <t>Pendente</t>
+    <t>Código JSON a ser copiado para o arquivo pedidos_mock.js</t>
   </si>
   <si>
-    <t>Em andamento</t>
+    <t>pendente</t>
   </si>
   <si>
-    <t>Concluído</t>
+    <t>cancelado</t>
   </si>
   <si>
-    <t>Cancelado</t>
+    <t>aprovado</t>
   </si>
   <si>
-    <t>Código JSON a ser copiado para o arquivo pedidos_mock.js</t>
+    <t>finalizado</t>
+  </si>
+  <si>
+    <t>E-mail</t>
+  </si>
+  <si>
+    <t>aluno1@gmail.com</t>
+  </si>
+  <si>
+    <t>aluno2@gmail.com</t>
+  </si>
+  <si>
+    <t>aluno3@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -146,7 +155,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +192,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -210,7 +227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -296,21 +313,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -377,14 +384,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -404,17 +411,18 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
@@ -751,13 +759,13 @@
   <dimension ref="A1:R132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" style="3" customWidth="1"/>
     <col min="4" max="4" width="28.140625" style="9" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="3" customWidth="1"/>
@@ -773,7 +781,7 @@
     <col min="15" max="15" width="5.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="18.28515625" style="1" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="10.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="213.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="188" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -782,34 +790,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
       <c r="F1" s="28"/>
       <c r="G1" s="26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1" s="27"/>
       <c r="I1" s="27"/>
       <c r="J1" s="28"/>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="M1" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="25" t="s">
-        <v>8</v>
-      </c>
       <c r="R1" s="25" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -819,45 +827,45 @@
         <v>0</v>
       </c>
       <c r="D2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>5</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="25"/>
+      <c r="K2" s="30"/>
       <c r="L2" s="25"/>
       <c r="M2" s="30"/>
       <c r="N2" s="25"/>
       <c r="R2" s="25"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="str">
-        <f t="shared" ref="A3:A12" ca="1" si="0">CONCATENATE(YEAR(L3),TEXT(MONTH(L3),"00"),TEXT(DAY(L3),"00"),TEXT(HOUR(L3),"00"),TEXT(MINUTE(L3),"00"),TEXT(SECOND(L3),"00"))</f>
-        <v>20240625183300</v>
-      </c>
-      <c r="B3" s="11">
-        <v>112</v>
+      <c r="A3" s="17">
+        <f ca="1">M3</f>
+        <v>1719783180000.0002</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>33</v>
       </c>
       <c r="C3" s="11">
         <v>2</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="11">
         <v>1</v>
@@ -875,11 +883,11 @@
       </c>
       <c r="L3" s="19">
         <f ca="1">TODAY() + 18/24 + 33/60/24</f>
-        <v>45468.772916666669</v>
+        <v>45473.772916666669</v>
       </c>
       <c r="M3" s="17">
         <f ca="1">(L3-$Q$5-0.875)*86400*1000</f>
-        <v>1719351180000.0002</v>
+        <v>1719783180000.0002</v>
       </c>
       <c r="N3" s="21" t="s">
         <v>28</v>
@@ -891,24 +899,24 @@
         <f>P3</f>
         <v>25569</v>
       </c>
-      <c r="R3" s="31" t="str">
-        <f ca="1">CONCATENATE("{ id: ",A3,", usuario: ",B3,", produtos: [ ", "{ id: ",C3,", descricao: ","""",D3,"""",", quantidade: ",E3,", preco: ",SUBSTITUTE(F3,",",".")," },",IF(G3&lt;&gt;"",CONCATENATE(" { id: ",G3,", descricao: ","""",H3,"""",", quantidade: ",I3,", preco: ",SUBSTITUTE(J3,",",".")," },"),""), " ], valorTotal: ",SUBSTITUTE(K3,",","."),", data: ",M3,", status: ","""",N3,""""," },")</f>
-        <v>{ id: 20240625183300, usuario: 112, produtos: [ { id: 2, descricao: "Coxinha", quantidade: 1, preco: 6.5 }, ], valorTotal: 6.5, data: 1719351180000, status: "Pendente" },</v>
+      <c r="R3" s="24" t="str">
+        <f ca="1">CONCATENATE("{ id: ",A3,", email: """,B3,""", status: ","""",N3,""""," , carrinho: [ ", "{ nome: ","""",D3,"""",", quantidade: ",E3,", preco: ",SUBSTITUTE(F3,",",".")," },",IF(G3&lt;&gt;"",CONCATENATE(" { id: ",G3,", descricao: ","""",H3,"""",", quantidade: ",I3,", preco: ",SUBSTITUTE(J3,",",".")," },"),""), " ] },")</f>
+        <v>{ id: 1719783180000, email: "aluno1@gmail.com", status: "pendente" , carrinho: [ { nome: "Coxinha", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>20240625183230</v>
-      </c>
-      <c r="B4" s="11">
-        <v>187</v>
+      <c r="A4" s="17">
+        <f t="shared" ref="A4:A67" ca="1" si="0">M4</f>
+        <v>1719783150000</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>33</v>
       </c>
       <c r="C4" s="11">
         <v>3</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="11">
         <v>1</v>
@@ -920,7 +928,7 @@
         <v>14</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" s="11">
         <v>1</v>
@@ -934,11 +942,11 @@
       </c>
       <c r="L4" s="19">
         <f ca="1">L3-30/60/60/24</f>
-        <v>45468.772569444445</v>
+        <v>45473.772569444445</v>
       </c>
       <c r="M4" s="17">
         <f t="shared" ref="M4:M52" ca="1" si="2">(L4-$Q$5-0.875)*86400*1000</f>
-        <v>1719351150000</v>
+        <v>1719783150000</v>
       </c>
       <c r="N4" s="21" t="s">
         <v>28</v>
@@ -950,24 +958,24 @@
         <f>P4</f>
         <v>1</v>
       </c>
-      <c r="R4" s="32" t="str">
-        <f t="shared" ref="R4:R67" ca="1" si="3">CONCATENATE("{ id: ",A4,", usuario: ",B4,", produtos: [ ", "{ id: ",C4,", descricao: ","""",D4,"""",", quantidade: ",E4,", preco: ",SUBSTITUTE(F4,",",".")," },",IF(G4&lt;&gt;"",CONCATENATE(" { id: ",G4,", descricao: ","""",H4,"""",", quantidade: ",I4,", preco: ",SUBSTITUTE(J4,",",".")," },"),""), " ], valorTotal: ",SUBSTITUTE(K4,",","."),", data: ",M4,", status: ","""",N4,""""," },")</f>
-        <v>{ id: 20240625183230, usuario: 187, produtos: [ { id: 3, descricao: "Empada", quantidade: 1, preco: 6.5 }, { id: 14, descricao: "Vitaminas", quantidade: 1, preco: 7.5 }, ], valorTotal: 14, data: 1719351150000, status: "Pendente" },</v>
+      <c r="R4" s="24" t="str">
+        <f t="shared" ref="R4:R67" ca="1" si="3">CONCATENATE("{ id: ",A4,", email: """,B4,""", status: ","""",N4,""""," , carrinho: [ ", "{ nome: ","""",D4,"""",", quantidade: ",E4,", preco: ",SUBSTITUTE(F4,",",".")," },",IF(G4&lt;&gt;"",CONCATENATE(" { id: ",G4,", descricao: ","""",H4,"""",", quantidade: ",I4,", preco: ",SUBSTITUTE(J4,",",".")," },"),""), " ] },")</f>
+        <v>{ id: 1719783150000, email: "aluno1@gmail.com", status: "pendente" , carrinho: [ { nome: "Empada", quantidade: 1, preco: 6.5 }, { id: 14, descricao: "Vitaminas", quantidade: 1, preco: 7.5 }, ] },</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="str">
+      <c r="A5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>20240625183200</v>
-      </c>
-      <c r="B5" s="11">
-        <v>194</v>
+        <v>1719783120000</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>34</v>
       </c>
       <c r="C5" s="11">
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="11">
         <v>1</v>
@@ -979,7 +987,7 @@
         <v>13</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" s="11">
         <v>1</v>
@@ -993,11 +1001,11 @@
       </c>
       <c r="L5" s="19">
         <f t="shared" ref="L5:L6" ca="1" si="4">L4-30/60/60/24</f>
-        <v>45468.772222222222</v>
+        <v>45473.772222222222</v>
       </c>
       <c r="M5" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>1719351120000</v>
+        <v>1719783120000</v>
       </c>
       <c r="N5" s="21" t="s">
         <v>28</v>
@@ -1006,24 +1014,24 @@
         <f>Q3-Q4</f>
         <v>25568</v>
       </c>
-      <c r="R5" s="32" t="str">
+      <c r="R5" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240625183200, usuario: 194, produtos: [ { id: 1, descricao: "Sanduíche Natual", quantidade: 1, preco: 10 }, { id: 13, descricao: "Sucos", quantidade: 1, preco: 6.5 }, ], valorTotal: 16.5, data: 1719351120000, status: "Pendente" },</v>
+        <v>{ id: 1719783120000, email: "aluno2@gmail.com", status: "pendente" , carrinho: [ { nome: "Sanduíche Natual", quantidade: 1, preco: 10 }, { id: 13, descricao: "Sucos", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="str">
+      <c r="A6" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>20240625183130</v>
-      </c>
-      <c r="B6" s="11">
-        <v>175</v>
+        <v>1719783089999.9998</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>35</v>
       </c>
       <c r="C6" s="11">
         <v>10</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="11">
         <v>1</v>
@@ -1035,7 +1043,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" s="11">
         <v>1</v>
@@ -1049,33 +1057,33 @@
       </c>
       <c r="L6" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>45468.771874999999</v>
+        <v>45473.771874999999</v>
       </c>
       <c r="M6" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>1719351089999.9998</v>
-      </c>
-      <c r="N6" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" s="32" t="str">
+        <v>1719783089999.9998</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240625183130, usuario: 175, produtos: [ { id: 10, descricao: "Hambúrguer", quantidade: 1, preco: 12 }, { id: 12, descricao: "Refrigerante", quantidade: 1, preco: 6 }, ], valorTotal: 18, data: 1719351090000, status: "Em andamento" },</v>
+        <v>{ id: 1719783090000, email: "aluno3@gmail.com", status: "aprovado" , carrinho: [ { nome: "Hambúrguer", quantidade: 1, preco: 12 }, { id: 12, descricao: "Refrigerante", quantidade: 1, preco: 6 }, ] },</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="str">
+      <c r="A7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>20240625182000</v>
-      </c>
-      <c r="B7" s="11">
-        <v>164</v>
+        <v>1719782400000.0002</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>35</v>
       </c>
       <c r="C7" s="11">
         <v>5</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="11">
         <v>1</v>
@@ -1093,34 +1101,34 @@
       </c>
       <c r="L7" s="19">
         <f ca="1">L3-13/60/24</f>
-        <v>45468.763888888891</v>
+        <v>45473.763888888891</v>
       </c>
       <c r="M7" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>1719350400000.0002</v>
-      </c>
-      <c r="N7" s="23" t="s">
-        <v>29</v>
+        <v>1719782400000.0002</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="P7" s="18"/>
-      <c r="R7" s="32" t="str">
+      <c r="R7" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240625182000, usuario: 164, produtos: [ { id: 5, descricao: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, ], valorTotal: 5, data: 1719350400000, status: "Em andamento" },</v>
+        <v>{ id: 1719782400000, email: "aluno3@gmail.com", status: "aprovado" , carrinho: [ { nome: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, ] },</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="str">
+      <c r="A8" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>20240625181700</v>
-      </c>
-      <c r="B8" s="11">
-        <v>154</v>
+        <v>1719782220000.0002</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>34</v>
       </c>
       <c r="C8" s="11">
         <v>6</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="11">
         <v>1</v>
@@ -1138,36 +1146,36 @@
       </c>
       <c r="L8" s="19">
         <f ca="1">L7-3/60/24</f>
-        <v>45468.761805555558</v>
+        <v>45473.761805555558</v>
       </c>
       <c r="M8" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>1719350220000.0002</v>
-      </c>
-      <c r="N8" s="23" t="s">
-        <v>29</v>
+        <v>1719782220000.0002</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="P8" s="19">
         <v>45450.999988425923</v>
       </c>
-      <c r="R8" s="32" t="str">
+      <c r="R8" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240625181700, usuario: 154, produtos: [ { id: 6, descricao: "Pastel Assado", quantidade: 1, preco: 6.5 }, ], valorTotal: 6.5, data: 1719350220000, status: "Em andamento" },</v>
+        <v>{ id: 1719782220000, email: "aluno2@gmail.com", status: "aprovado" , carrinho: [ { nome: "Pastel Assado", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="str">
+      <c r="A9" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>20240625181400</v>
-      </c>
-      <c r="B9" s="11">
-        <v>100</v>
+        <v>1719782040000.0002</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>33</v>
       </c>
       <c r="C9" s="11">
         <v>4</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="11">
         <v>1</v>
@@ -1185,37 +1193,37 @@
       </c>
       <c r="L9" s="19">
         <f t="shared" ref="L9:L12" ca="1" si="5">L8-3/60/24</f>
-        <v>45468.759722222225</v>
+        <v>45473.759722222225</v>
       </c>
       <c r="M9" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>1719350040000.0002</v>
-      </c>
-      <c r="N9" s="23" t="s">
-        <v>29</v>
+        <v>1719782040000.0002</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="P9" s="17">
         <f>(P8-$Q$5-0.875)*86400*1000</f>
         <v>1717815598999.9998</v>
       </c>
-      <c r="R9" s="32" t="str">
+      <c r="R9" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240625181400, usuario: 100, produtos: [ { id: 4, descricao: "Pão de Queijo", quantidade: 1, preco: 3 }, ], valorTotal: 3, data: 1719350040000, status: "Em andamento" },</v>
+        <v>{ id: 1719782040000, email: "aluno1@gmail.com", status: "aprovado" , carrinho: [ { nome: "Pão de Queijo", quantidade: 1, preco: 3 }, ] },</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="str">
+      <c r="A10" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>20240625181100</v>
-      </c>
-      <c r="B10" s="11">
-        <v>200</v>
+        <v>1719781860000.0002</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>34</v>
       </c>
       <c r="C10" s="11">
         <v>7</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="11">
         <v>1</v>
@@ -1233,33 +1241,33 @@
       </c>
       <c r="L10" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>45468.757638888892</v>
+        <v>45473.757638888892</v>
       </c>
       <c r="M10" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>1719349860000.0002</v>
+        <v>1719781860000.0002</v>
       </c>
       <c r="N10" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="R10" s="32" t="str">
+        <v>29</v>
+      </c>
+      <c r="R10" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240625181100, usuario: 200, produtos: [ { id: 7, descricao: "Hamburgão", quantidade: 1, preco: 6.5 }, ], valorTotal: 6.5, data: 1719349860000, status: "Cancelado" },</v>
+        <v>{ id: 1719781860000, email: "aluno2@gmail.com", status: "cancelado" , carrinho: [ { nome: "Hamburgão", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="str">
+      <c r="A11" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>20240625180800</v>
-      </c>
-      <c r="B11" s="11">
-        <v>163</v>
+        <v>1719781680000.0002</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>35</v>
       </c>
       <c r="C11" s="11">
         <v>4</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="11">
         <v>1</v>
@@ -1271,7 +1279,7 @@
         <v>14</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I11" s="11">
         <v>1</v>
@@ -1285,33 +1293,33 @@
       </c>
       <c r="L11" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>45468.755555555559</v>
+        <v>45473.755555555559</v>
       </c>
       <c r="M11" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>1719349680000.0002</v>
+        <v>1719781680000.0002</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R11" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R11" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240625180800, usuario: 163, produtos: [ { id: 4, descricao: "Pão de Queijo", quantidade: 1, preco: 3 }, { id: 14, descricao: "Vitaminas", quantidade: 1, preco: 7.5 }, ], valorTotal: 10.5, data: 1719349680000, status: "Concluído" },</v>
+        <v>{ id: 1719781680000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pão de Queijo", quantidade: 1, preco: 3 }, { id: 14, descricao: "Vitaminas", quantidade: 1, preco: 7.5 }, ] },</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="str">
+      <c r="A12" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>20240625180500</v>
-      </c>
-      <c r="B12" s="11">
-        <v>153</v>
+        <v>1719781500000.0002</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>34</v>
       </c>
       <c r="C12" s="11">
         <v>10</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="11">
         <v>1</v>
@@ -1323,7 +1331,7 @@
         <v>14</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I12" s="11">
         <v>1</v>
@@ -1337,33 +1345,33 @@
       </c>
       <c r="L12" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>45468.753472222226</v>
+        <v>45473.753472222226</v>
       </c>
       <c r="M12" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>1719349500000.0002</v>
+        <v>1719781500000.0002</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R12" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R12" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240625180500, usuario: 153, produtos: [ { id: 10, descricao: "Hambúrguer", quantidade: 1, preco: 12 }, { id: 14, descricao: "Vitaminas", quantidade: 1, preco: 7.5 }, ], valorTotal: 19.5, data: 1719349500000, status: "Concluído" },</v>
+        <v>{ id: 1719781500000, email: "aluno2@gmail.com", status: "finalizado" , carrinho: [ { nome: "Hambúrguer", quantidade: 1, preco: 12 }, { id: 14, descricao: "Vitaminas", quantidade: 1, preco: 7.5 }, ] },</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="str">
-        <f ca="1">CONCATENATE(YEAR(L13),TEXT(MONTH(L13),"00"),TEXT(DAY(L13),"00"),TEXT(HOUR(L13),"00"),TEXT(MINUTE(L13),"00"),TEXT(SECOND(L13),"00"))</f>
-        <v>20240624183300</v>
-      </c>
-      <c r="B13" s="2">
-        <v>155</v>
+      <c r="A13" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1719696780000.0002</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>33</v>
       </c>
       <c r="C13" s="2">
         <v>5</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -1381,33 +1389,33 @@
       </c>
       <c r="L13" s="20">
         <f ca="1">L3-1</f>
-        <v>45467.772916666669</v>
+        <v>45472.772916666669</v>
       </c>
       <c r="M13" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1719264780000.0002</v>
+        <v>1719696780000.0002</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R13" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R13" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240624183300, usuario: 155, produtos: [ { id: 5, descricao: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, ], valorTotal: 5, data: 1719264780000, status: "Concluído" },</v>
+        <v>{ id: 1719696780000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, ] },</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="str">
-        <f t="shared" ref="A14:A77" ca="1" si="6">CONCATENATE(YEAR(L14),TEXT(MONTH(L14),"00"),TEXT(DAY(L14),"00"),TEXT(HOUR(L14),"00"),TEXT(MINUTE(L14),"00"),TEXT(SECOND(L14),"00"))</f>
-        <v>20240624183230</v>
-      </c>
-      <c r="B14" s="2">
-        <v>110</v>
+      <c r="A14" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1719696750000</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="2">
         <v>8</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -1419,7 +1427,7 @@
         <v>15</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
@@ -1433,33 +1441,33 @@
       </c>
       <c r="L14" s="20">
         <f ca="1">L13-30/60/60/24</f>
-        <v>45467.772569444445</v>
+        <v>45472.772569444445</v>
       </c>
       <c r="M14" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1719264750000</v>
+        <v>1719696750000</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R14" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R14" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240624183230, usuario: 110, produtos: [ { id: 8, descricao: "Enrolado de Presunto e Queijo", quantidade: 1, preco: 6.5 }, { id: 15, descricao: "Água", quantidade: 1, preco: 4.5 }, ], valorTotal: 11, data: 1719264750000, status: "Concluído" },</v>
+        <v>{ id: 1719696750000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Enrolado de Presunto e Queijo", quantidade: 1, preco: 6.5 }, { id: 15, descricao: "Água", quantidade: 1, preco: 4.5 }, ] },</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240624183200</v>
-      </c>
-      <c r="B15" s="2">
-        <v>188</v>
+      <c r="A15" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1719696720000</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="2">
         <v>9</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -1476,34 +1484,34 @@
         <v>6.5</v>
       </c>
       <c r="L15" s="20">
-        <f t="shared" ref="L15:L16" ca="1" si="7">L14-30/60/60/24</f>
-        <v>45467.772222222222</v>
+        <f t="shared" ref="L15:L16" ca="1" si="6">L14-30/60/60/24</f>
+        <v>45472.772222222222</v>
       </c>
       <c r="M15" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1719264720000</v>
+        <v>1719696720000</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R15" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R15" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240624183200, usuario: 188, produtos: [ { id: 9, descricao: "Enrolado de Presunto e Queijo", quantidade: 1, preco: 6.5 }, ], valorTotal: 6.5, data: 1719264720000, status: "Concluído" },</v>
+        <v>{ id: 1719696720000, email: "aluno2@gmail.com", status: "finalizado" , carrinho: [ { nome: "Enrolado de Presunto e Queijo", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240624183130</v>
-      </c>
-      <c r="B16" s="2">
-        <v>108</v>
+      <c r="A16" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1719696689999.9998</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="2">
         <v>11</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -1515,7 +1523,7 @@
         <v>19</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
@@ -1528,34 +1536,34 @@
         <v>17.5</v>
       </c>
       <c r="L16" s="20">
-        <f t="shared" ca="1" si="7"/>
-        <v>45467.771874999999</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45472.771874999999</v>
       </c>
       <c r="M16" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1719264689999.9998</v>
+        <v>1719696689999.9998</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R16" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R16" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240624183130, usuario: 108, produtos: [ { id: 11, descricao: "Batata Frita", quantidade: 1, preco: 15 }, { id: 19, descricao: "Chicletes", quantidade: 1, preco: 2.5 }, ], valorTotal: 17.5, data: 1719264690000, status: "Concluído" },</v>
+        <v>{ id: 1719696690000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Batata Frita", quantidade: 1, preco: 15 }, { id: 19, descricao: "Chicletes", quantidade: 1, preco: 2.5 }, ] },</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240624182000</v>
-      </c>
-      <c r="B17" s="2">
-        <v>135</v>
+      <c r="A17" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1719696000000.0002</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>35</v>
       </c>
       <c r="C17" s="2">
         <v>15</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
@@ -1567,7 +1575,7 @@
         <v>17</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
@@ -1581,33 +1589,33 @@
       </c>
       <c r="L17" s="20">
         <f ca="1">L13-13/60/24</f>
-        <v>45467.763888888891</v>
+        <v>45472.763888888891</v>
       </c>
       <c r="M17" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1719264000000.0002</v>
+        <v>1719696000000.0002</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R17" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R17" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240624182000, usuario: 135, produtos: [ { id: 15, descricao: "Água", quantidade: 1, preco: 4.5 }, { id: 17, descricao: "Bombom", quantidade: 1, preco: 3 }, ], valorTotal: 7.5, data: 1719264000000, status: "Concluído" },</v>
+        <v>{ id: 1719696000000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Água", quantidade: 1, preco: 4.5 }, { id: 17, descricao: "Bombom", quantidade: 1, preco: 3 }, ] },</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240623183300</v>
-      </c>
-      <c r="B18" s="11">
-        <v>171</v>
+      <c r="A18" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1719610380000.0002</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="C18" s="11">
         <v>16</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="11">
         <v>1</v>
@@ -1625,34 +1633,34 @@
       </c>
       <c r="L18" s="19">
         <f ca="1">L13-1</f>
-        <v>45466.772916666669</v>
+        <v>45471.772916666669</v>
       </c>
       <c r="M18" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>1719178380000.0002</v>
+        <v>1719610380000.0002</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P18" s="3"/>
-      <c r="R18" s="32" t="str">
+      <c r="R18" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240623183300, usuario: 171, produtos: [ { id: 16, descricao: "Energético", quantidade: 1, preco: 12 }, ], valorTotal: 12, data: 1719178380000, status: "Concluído" },</v>
+        <v>{ id: 1719610380000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Energético", quantidade: 1, preco: 12 }, ] },</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240623183230</v>
-      </c>
-      <c r="B19" s="11">
-        <v>121</v>
+      <c r="A19" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1719610350000</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="C19" s="11">
         <v>4</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" s="11">
         <v>1</v>
@@ -1664,7 +1672,7 @@
         <v>18</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I19" s="11">
         <v>2</v>
@@ -1678,34 +1686,34 @@
       </c>
       <c r="L19" s="19">
         <f ca="1">L18-30/60/60/24</f>
-        <v>45466.772569444445</v>
+        <v>45471.772569444445</v>
       </c>
       <c r="M19" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>1719178350000</v>
+        <v>1719610350000</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P19" s="3"/>
-      <c r="R19" s="32" t="str">
+      <c r="R19" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240623183230, usuario: 121, produtos: [ { id: 4, descricao: "Pão de Queijo", quantidade: 1, preco: 3 }, { id: 18, descricao: "Balas", quantidade: 2, preco: 0.25 }, ], valorTotal: 3.5, data: 1719178350000, status: "Concluído" },</v>
+        <v>{ id: 1719610350000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pão de Queijo", quantidade: 1, preco: 3 }, { id: 18, descricao: "Balas", quantidade: 2, preco: 0.25 }, ] },</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240623183200</v>
-      </c>
-      <c r="B20" s="11">
-        <v>118</v>
+      <c r="A20" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1719610320000</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="C20" s="11">
         <v>2</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" s="11">
         <v>1</v>
@@ -1722,34 +1730,34 @@
         <v>6.5</v>
       </c>
       <c r="L20" s="19">
-        <f t="shared" ref="L20:L21" ca="1" si="8">L19-30/60/60/24</f>
-        <v>45466.772222222222</v>
+        <f t="shared" ref="L20:L21" ca="1" si="7">L19-30/60/60/24</f>
+        <v>45471.772222222222</v>
       </c>
       <c r="M20" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>1719178320000</v>
+        <v>1719610320000</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R20" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R20" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240623183200, usuario: 118, produtos: [ { id: 2, descricao: "Coxinha", quantidade: 1, preco: 6.5 }, ], valorTotal: 6.5, data: 1719178320000, status: "Concluído" },</v>
+        <v>{ id: 1719610320000, email: "aluno2@gmail.com", status: "finalizado" , carrinho: [ { nome: "Coxinha", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240623183130</v>
-      </c>
-      <c r="B21" s="11">
-        <v>117</v>
+      <c r="A21" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1719610289999.9998</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="C21" s="11">
         <v>14</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" s="11">
         <v>1</v>
@@ -1766,34 +1774,34 @@
         <v>7.5</v>
       </c>
       <c r="L21" s="19">
-        <f t="shared" ca="1" si="8"/>
-        <v>45466.771874999999</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>45471.771874999999</v>
       </c>
       <c r="M21" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>1719178289999.9998</v>
+        <v>1719610289999.9998</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R21" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R21" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240623183130, usuario: 117, produtos: [ { id: 14, descricao: "Vitaminas", quantidade: 1, preco: 7.5 }, ], valorTotal: 7.5, data: 1719178290000, status: "Concluído" },</v>
+        <v>{ id: 1719610290000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Vitaminas", quantidade: 1, preco: 7.5 }, ] },</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240623182000</v>
-      </c>
-      <c r="B22" s="11">
-        <v>129</v>
+      <c r="A22" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1719609600000.0002</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="C22" s="11">
         <v>5</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" s="11">
         <v>1</v>
@@ -1811,34 +1819,34 @@
       </c>
       <c r="L22" s="19">
         <f ca="1">L18-13/60/24</f>
-        <v>45466.763888888891</v>
+        <v>45471.763888888891</v>
       </c>
       <c r="M22" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>1719177600000.0002</v>
+        <v>1719609600000.0002</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="P22" s="24"/>
-      <c r="R22" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="P22" s="23"/>
+      <c r="R22" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240623182000, usuario: 129, produtos: [ { id: 5, descricao: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, ], valorTotal: 5, data: 1719177600000, status: "Concluído" },</v>
+        <v>{ id: 1719609600000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, ] },</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240622183300</v>
-      </c>
-      <c r="B23" s="2">
-        <v>161</v>
+      <c r="A23" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1719523980000.0002</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C23" s="2">
         <v>6</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
@@ -1856,33 +1864,33 @@
       </c>
       <c r="L23" s="20">
         <f ca="1">L18-1</f>
-        <v>45465.772916666669</v>
+        <v>45470.772916666669</v>
       </c>
       <c r="M23" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1719091980000.0002</v>
+        <v>1719523980000.0002</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R23" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R23" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240622183300, usuario: 161, produtos: [ { id: 6, descricao: "Pastel Assado", quantidade: 1, preco: 6.5 }, ], valorTotal: 6.5, data: 1719091980000, status: "Concluído" },</v>
+        <v>{ id: 1719523980000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pastel Assado", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240622183230</v>
-      </c>
-      <c r="B24" s="2">
-        <v>177</v>
+      <c r="A24" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1719523950000</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C24" s="2">
         <v>7</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
@@ -1894,7 +1902,7 @@
         <v>13</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
@@ -1908,33 +1916,33 @@
       </c>
       <c r="L24" s="20">
         <f ca="1">L23-30/60/60/24</f>
-        <v>45465.772569444445</v>
+        <v>45470.772569444445</v>
       </c>
       <c r="M24" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1719091950000</v>
+        <v>1719523950000</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R24" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R24" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240622183230, usuario: 177, produtos: [ { id: 7, descricao: "Hamburgão", quantidade: 1, preco: 6.5 }, { id: 13, descricao: "Sucos", quantidade: 1, preco: 6.5 }, ], valorTotal: 13, data: 1719091950000, status: "Concluído" },</v>
+        <v>{ id: 1719523950000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Hamburgão", quantidade: 1, preco: 6.5 }, { id: 13, descricao: "Sucos", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240622183200</v>
-      </c>
-      <c r="B25" s="2">
-        <v>129</v>
+      <c r="A25" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1719523920000</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C25" s="2">
         <v>5</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
@@ -1951,34 +1959,34 @@
         <v>5</v>
       </c>
       <c r="L25" s="20">
-        <f t="shared" ref="L25:L26" ca="1" si="9">L24-30/60/60/24</f>
-        <v>45465.772222222222</v>
+        <f t="shared" ref="L25:L26" ca="1" si="8">L24-30/60/60/24</f>
+        <v>45470.772222222222</v>
       </c>
       <c r="M25" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1719091920000</v>
-      </c>
-      <c r="N25" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="R25" s="32" t="str">
+        <v>1719523920000</v>
+      </c>
+      <c r="N25" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="R25" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240622183200, usuario: 129, produtos: [ { id: 5, descricao: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, ], valorTotal: 5, data: 1719091920000, status: "Cancelado" },</v>
+        <v>{ id: 1719523920000, email: "aluno2@gmail.com", status: "cancelado" , carrinho: [ { nome: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, ] },</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240622183130</v>
-      </c>
-      <c r="B26" s="2">
-        <v>108</v>
+      <c r="A26" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1719523889999.9998</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C26" s="2">
         <v>5</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -1995,34 +2003,34 @@
         <v>5</v>
       </c>
       <c r="L26" s="20">
-        <f t="shared" ca="1" si="9"/>
-        <v>45465.771874999999</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45470.771874999999</v>
       </c>
       <c r="M26" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1719091889999.9998</v>
+        <v>1719523889999.9998</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R26" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R26" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240622183130, usuario: 108, produtos: [ { id: 5, descricao: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, ], valorTotal: 5, data: 1719091890000, status: "Concluído" },</v>
+        <v>{ id: 1719523890000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, ] },</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240622182000</v>
-      </c>
-      <c r="B27" s="2">
-        <v>129</v>
+      <c r="A27" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1719523200000.0002</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -2034,7 +2042,7 @@
         <v>13</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I27" s="2">
         <v>1</v>
@@ -2048,33 +2056,33 @@
       </c>
       <c r="L27" s="20">
         <f ca="1">L23-13/60/24</f>
-        <v>45465.763888888891</v>
+        <v>45470.763888888891</v>
       </c>
       <c r="M27" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1719091200000.0002</v>
+        <v>1719523200000.0002</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R27" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R27" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240622182000, usuario: 129, produtos: [ { id: 1, descricao: "Sanduíche Natual", quantidade: 1, preco: 10 }, { id: 13, descricao: "Sucos", quantidade: 1, preco: 6.5 }, ], valorTotal: 16.5, data: 1719091200000, status: "Concluído" },</v>
+        <v>{ id: 1719523200000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Sanduíche Natual", quantidade: 1, preco: 10 }, { id: 13, descricao: "Sucos", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240621183300</v>
-      </c>
-      <c r="B28" s="11">
-        <v>139</v>
+      <c r="A28" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1719437580000.0002</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="C28" s="11">
         <v>7</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E28" s="11">
         <v>1</v>
@@ -2092,33 +2100,33 @@
       </c>
       <c r="L28" s="19">
         <f ca="1">L23-1</f>
-        <v>45464.772916666669</v>
+        <v>45469.772916666669</v>
       </c>
       <c r="M28" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>1719005580000.0002</v>
+        <v>1719437580000.0002</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R28" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R28" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240621183300, usuario: 139, produtos: [ { id: 7, descricao: "Hamburgão", quantidade: 1, preco: 6.5 }, ], valorTotal: 6.5, data: 1719005580000, status: "Concluído" },</v>
+        <v>{ id: 1719437580000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Hamburgão", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240621183230</v>
-      </c>
-      <c r="B29" s="11">
-        <v>182</v>
+      <c r="A29" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1719437550000</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="C29" s="11">
         <v>10</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E29" s="11">
         <v>1</v>
@@ -2136,33 +2144,33 @@
       </c>
       <c r="L29" s="19">
         <f ca="1">L28-30/60/60/24</f>
-        <v>45464.772569444445</v>
+        <v>45469.772569444445</v>
       </c>
       <c r="M29" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>1719005550000</v>
+        <v>1719437550000</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R29" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R29" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240621183230, usuario: 182, produtos: [ { id: 10, descricao: "Hambúrguer", quantidade: 1, preco: 12 }, ], valorTotal: 12, data: 1719005550000, status: "Concluído" },</v>
+        <v>{ id: 1719437550000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Hambúrguer", quantidade: 1, preco: 12 }, ] },</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240621183200</v>
-      </c>
-      <c r="B30" s="11">
-        <v>101</v>
+      <c r="A30" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1719437520000</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="C30" s="11">
         <v>4</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E30" s="11">
         <v>1</v>
@@ -2174,7 +2182,7 @@
         <v>15</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I30" s="11">
         <v>1</v>
@@ -2187,34 +2195,34 @@
         <v>7.5</v>
       </c>
       <c r="L30" s="19">
-        <f t="shared" ref="L30:L31" ca="1" si="10">L29-30/60/60/24</f>
-        <v>45464.772222222222</v>
+        <f t="shared" ref="L30:L31" ca="1" si="9">L29-30/60/60/24</f>
+        <v>45469.772222222222</v>
       </c>
       <c r="M30" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>1719005520000</v>
+        <v>1719437520000</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R30" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R30" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240621183200, usuario: 101, produtos: [ { id: 4, descricao: "Pão de Queijo", quantidade: 1, preco: 3 }, { id: 15, descricao: "Água", quantidade: 1, preco: 4.5 }, ], valorTotal: 7.5, data: 1719005520000, status: "Concluído" },</v>
+        <v>{ id: 1719437520000, email: "aluno2@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pão de Queijo", quantidade: 1, preco: 3 }, { id: 15, descricao: "Água", quantidade: 1, preco: 4.5 }, ] },</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240621183130</v>
-      </c>
-      <c r="B31" s="11">
-        <v>155</v>
+      <c r="A31" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1719437489999.9998</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="C31" s="11">
         <v>15</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E31" s="11">
         <v>1</v>
@@ -2231,34 +2239,34 @@
         <v>4.5</v>
       </c>
       <c r="L31" s="19">
-        <f t="shared" ca="1" si="10"/>
-        <v>45464.771874999999</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45469.771874999999</v>
       </c>
       <c r="M31" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>1719005489999.9998</v>
+        <v>1719437489999.9998</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R31" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R31" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240621183130, usuario: 155, produtos: [ { id: 15, descricao: "Água", quantidade: 1, preco: 4.5 }, ], valorTotal: 4.5, data: 1719005490000, status: "Concluído" },</v>
+        <v>{ id: 1719437490000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Água", quantidade: 1, preco: 4.5 }, ] },</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240621182000</v>
-      </c>
-      <c r="B32" s="11">
-        <v>111</v>
+      <c r="A32" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1719436800000.0002</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="C32" s="11">
         <v>6</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32" s="11">
         <v>1</v>
@@ -2276,33 +2284,33 @@
       </c>
       <c r="L32" s="19">
         <f ca="1">L28-13/60/24</f>
-        <v>45464.763888888891</v>
+        <v>45469.763888888891</v>
       </c>
       <c r="M32" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>1719004800000.0002</v>
+        <v>1719436800000.0002</v>
       </c>
       <c r="N32" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R32" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R32" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240621182000, usuario: 111, produtos: [ { id: 6, descricao: "Pastel Assado", quantidade: 1, preco: 6.5 }, ], valorTotal: 6.5, data: 1719004800000, status: "Concluído" },</v>
+        <v>{ id: 1719436800000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pastel Assado", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240618183300</v>
-      </c>
-      <c r="B33" s="2">
-        <v>134</v>
+      <c r="A33" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1719178380000.0002</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C33" s="2">
         <v>8</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
@@ -2320,33 +2328,33 @@
       </c>
       <c r="L33" s="20">
         <f ca="1">L28-3</f>
-        <v>45461.772916666669</v>
+        <v>45466.772916666669</v>
       </c>
       <c r="M33" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1718746380000.0002</v>
+        <v>1719178380000.0002</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R33" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R33" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240618183300, usuario: 134, produtos: [ { id: 8, descricao: "Enrolado de Presunto e Queijo", quantidade: 1, preco: 6.5 }, ], valorTotal: 6.5, data: 1718746380000, status: "Concluído" },</v>
+        <v>{ id: 1719178380000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Enrolado de Presunto e Queijo", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240618183230</v>
-      </c>
-      <c r="B34" s="2">
-        <v>115</v>
+      <c r="A34" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1719178350000</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
@@ -2358,7 +2366,7 @@
         <v>13</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I34" s="2">
         <v>1</v>
@@ -2372,33 +2380,33 @@
       </c>
       <c r="L34" s="20">
         <f ca="1">L33-30/60/60/24</f>
-        <v>45461.772569444445</v>
+        <v>45466.772569444445</v>
       </c>
       <c r="M34" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1718746350000</v>
+        <v>1719178350000</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R34" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R34" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240618183230, usuario: 115, produtos: [ { id: 1, descricao: "Sanduíche Natual", quantidade: 1, preco: 10 }, { id: 13, descricao: "Sucos", quantidade: 1, preco: 6.5 }, ], valorTotal: 16.5, data: 1718746350000, status: "Concluído" },</v>
+        <v>{ id: 1719178350000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Sanduíche Natual", quantidade: 1, preco: 10 }, { id: 13, descricao: "Sucos", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240618183200</v>
-      </c>
-      <c r="B35" s="2">
-        <v>144</v>
+      <c r="A35" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1719178320000</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C35" s="2">
         <v>14</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
@@ -2415,34 +2423,34 @@
         <v>7.5</v>
       </c>
       <c r="L35" s="20">
-        <f t="shared" ref="L35:L36" ca="1" si="11">L34-30/60/60/24</f>
-        <v>45461.772222222222</v>
+        <f t="shared" ref="L35:L36" ca="1" si="10">L34-30/60/60/24</f>
+        <v>45466.772222222222</v>
       </c>
       <c r="M35" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1718746320000</v>
+        <v>1719178320000</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R35" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R35" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240618183200, usuario: 144, produtos: [ { id: 14, descricao: "Vitaminas", quantidade: 1, preco: 7.5 }, ], valorTotal: 7.5, data: 1718746320000, status: "Concluído" },</v>
+        <v>{ id: 1719178320000, email: "aluno2@gmail.com", status: "finalizado" , carrinho: [ { nome: "Vitaminas", quantidade: 1, preco: 7.5 }, ] },</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240618183130</v>
-      </c>
-      <c r="B36" s="2">
-        <v>147</v>
+      <c r="A36" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1719178289999.9998</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C36" s="2">
         <v>14</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E36" s="2">
         <v>1</v>
@@ -2459,34 +2467,34 @@
         <v>7.5</v>
       </c>
       <c r="L36" s="20">
-        <f t="shared" ca="1" si="11"/>
-        <v>45461.771874999999</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45466.771874999999</v>
       </c>
       <c r="M36" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1718746289999.9998</v>
+        <v>1719178289999.9998</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R36" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R36" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240618183130, usuario: 147, produtos: [ { id: 14, descricao: "Vitaminas", quantidade: 1, preco: 7.5 }, ], valorTotal: 7.5, data: 1718746290000, status: "Concluído" },</v>
+        <v>{ id: 1719178290000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Vitaminas", quantidade: 1, preco: 7.5 }, ] },</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240618182000</v>
-      </c>
-      <c r="B37" s="2">
-        <v>107</v>
+      <c r="A37" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1719177600000.0002</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C37" s="2">
         <v>5</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E37" s="2">
         <v>1</v>
@@ -2504,33 +2512,33 @@
       </c>
       <c r="L37" s="20">
         <f ca="1">L33-13/60/24</f>
-        <v>45461.763888888891</v>
+        <v>45466.763888888891</v>
       </c>
       <c r="M37" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1718745600000.0002</v>
+        <v>1719177600000.0002</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R37" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R37" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240618182000, usuario: 107, produtos: [ { id: 5, descricao: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, ], valorTotal: 5, data: 1718745600000, status: "Concluído" },</v>
+        <v>{ id: 1719177600000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, ] },</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240617183300</v>
-      </c>
-      <c r="B38" s="11">
-        <v>173</v>
+      <c r="A38" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1719091980000.0002</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="C38" s="11">
         <v>3</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E38" s="11">
         <v>1</v>
@@ -2542,7 +2550,7 @@
         <v>17</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I38" s="11">
         <v>1</v>
@@ -2556,33 +2564,33 @@
       </c>
       <c r="L38" s="19">
         <f ca="1">L33-1</f>
-        <v>45460.772916666669</v>
+        <v>45465.772916666669</v>
       </c>
       <c r="M38" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>1718659980000.0002</v>
+        <v>1719091980000.0002</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R38" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R38" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240617183300, usuario: 173, produtos: [ { id: 3, descricao: "Empada", quantidade: 1, preco: 6.5 }, { id: 17, descricao: "Bombom", quantidade: 1, preco: 3 }, ], valorTotal: 9.5, data: 1718659980000, status: "Concluído" },</v>
+        <v>{ id: 1719091980000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Empada", quantidade: 1, preco: 6.5 }, { id: 17, descricao: "Bombom", quantidade: 1, preco: 3 }, ] },</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240617183230</v>
-      </c>
-      <c r="B39" s="11">
-        <v>103</v>
+      <c r="A39" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1719091950000</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="C39" s="11">
         <v>5</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E39" s="11">
         <v>1</v>
@@ -2600,33 +2608,33 @@
       </c>
       <c r="L39" s="19">
         <f ca="1">L38-30/60/60/24</f>
-        <v>45460.772569444445</v>
+        <v>45465.772569444445</v>
       </c>
       <c r="M39" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>1718659950000</v>
+        <v>1719091950000</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R39" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R39" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240617183230, usuario: 103, produtos: [ { id: 5, descricao: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, ], valorTotal: 5, data: 1718659950000, status: "Concluído" },</v>
+        <v>{ id: 1719091950000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, ] },</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240617183200</v>
-      </c>
-      <c r="B40" s="11">
-        <v>114</v>
+      <c r="A40" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1719091920000</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="C40" s="11">
         <v>14</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E40" s="11">
         <v>1</v>
@@ -2643,34 +2651,34 @@
         <v>7.5</v>
       </c>
       <c r="L40" s="19">
-        <f t="shared" ref="L40:L41" ca="1" si="12">L39-30/60/60/24</f>
-        <v>45460.772222222222</v>
+        <f t="shared" ref="L40:L41" ca="1" si="11">L39-30/60/60/24</f>
+        <v>45465.772222222222</v>
       </c>
       <c r="M40" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>1718659920000</v>
+        <v>1719091920000</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R40" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R40" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240617183200, usuario: 114, produtos: [ { id: 14, descricao: "Vitaminas", quantidade: 1, preco: 7.5 }, ], valorTotal: 7.5, data: 1718659920000, status: "Concluído" },</v>
+        <v>{ id: 1719091920000, email: "aluno2@gmail.com", status: "finalizado" , carrinho: [ { nome: "Vitaminas", quantidade: 1, preco: 7.5 }, ] },</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240617183130</v>
-      </c>
-      <c r="B41" s="11">
-        <v>114</v>
+      <c r="A41" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1719091889999.9998</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="C41" s="11">
         <v>7</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E41" s="11">
         <v>1</v>
@@ -2687,34 +2695,34 @@
         <v>6.5</v>
       </c>
       <c r="L41" s="19">
-        <f t="shared" ca="1" si="12"/>
-        <v>45460.771874999999</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45465.771874999999</v>
       </c>
       <c r="M41" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>1718659889999.9998</v>
+        <v>1719091889999.9998</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R41" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R41" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240617183130, usuario: 114, produtos: [ { id: 7, descricao: "Hamburgão", quantidade: 1, preco: 6.5 }, ], valorTotal: 6.5, data: 1718659890000, status: "Concluído" },</v>
+        <v>{ id: 1719091890000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Hamburgão", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240617182000</v>
-      </c>
-      <c r="B42" s="11">
-        <v>196</v>
+      <c r="A42" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1719091200000.0002</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="C42" s="11">
         <v>10</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E42" s="11">
         <v>1</v>
@@ -2726,7 +2734,7 @@
         <v>12</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I42" s="11">
         <v>1</v>
@@ -2740,33 +2748,33 @@
       </c>
       <c r="L42" s="19">
         <f ca="1">L38-13/60/24</f>
-        <v>45460.763888888891</v>
+        <v>45465.763888888891</v>
       </c>
       <c r="M42" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>1718659200000.0002</v>
+        <v>1719091200000.0002</v>
       </c>
       <c r="N42" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="R42" s="32" t="str">
+        <v>29</v>
+      </c>
+      <c r="R42" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240617182000, usuario: 196, produtos: [ { id: 10, descricao: "Hambúrguer", quantidade: 1, preco: 12 }, { id: 12, descricao: "Refrigerante", quantidade: 1, preco: 6 }, ], valorTotal: 18, data: 1718659200000, status: "Cancelado" },</v>
+        <v>{ id: 1719091200000, email: "aluno3@gmail.com", status: "cancelado" , carrinho: [ { nome: "Hambúrguer", quantidade: 1, preco: 12 }, { id: 12, descricao: "Refrigerante", quantidade: 1, preco: 6 }, ] },</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240616183300</v>
-      </c>
-      <c r="B43" s="2">
-        <v>160</v>
+      <c r="A43" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1719005580000.0002</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C43" s="2">
         <v>4</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E43" s="2">
         <v>1</v>
@@ -2784,33 +2792,33 @@
       </c>
       <c r="L43" s="20">
         <f ca="1">L38-1</f>
-        <v>45459.772916666669</v>
+        <v>45464.772916666669</v>
       </c>
       <c r="M43" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1718573580000.0002</v>
+        <v>1719005580000.0002</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R43" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R43" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240616183300, usuario: 160, produtos: [ { id: 4, descricao: "Pão de Queijo", quantidade: 1, preco: 3 }, ], valorTotal: 3, data: 1718573580000, status: "Concluído" },</v>
+        <v>{ id: 1719005580000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pão de Queijo", quantidade: 1, preco: 3 }, ] },</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240616183230</v>
-      </c>
-      <c r="B44" s="2">
-        <v>191</v>
+      <c r="A44" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1719005550000</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C44" s="2">
         <v>14</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E44" s="2">
         <v>1</v>
@@ -2828,33 +2836,33 @@
       </c>
       <c r="L44" s="20">
         <f ca="1">L43-30/60/60/24</f>
-        <v>45459.772569444445</v>
+        <v>45464.772569444445</v>
       </c>
       <c r="M44" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1718573550000</v>
+        <v>1719005550000</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R44" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R44" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240616183230, usuario: 191, produtos: [ { id: 14, descricao: "Vitaminas", quantidade: 1, preco: 7.5 }, ], valorTotal: 7.5, data: 1718573550000, status: "Concluído" },</v>
+        <v>{ id: 1719005550000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Vitaminas", quantidade: 1, preco: 7.5 }, ] },</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240616183200</v>
-      </c>
-      <c r="B45" s="2">
-        <v>131</v>
+      <c r="A45" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1719005520000</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C45" s="2">
         <v>4</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E45" s="2">
         <v>1</v>
@@ -2871,34 +2879,34 @@
         <v>3</v>
       </c>
       <c r="L45" s="20">
-        <f t="shared" ref="L45:L46" ca="1" si="13">L44-30/60/60/24</f>
-        <v>45459.772222222222</v>
+        <f t="shared" ref="L45:L46" ca="1" si="12">L44-30/60/60/24</f>
+        <v>45464.772222222222</v>
       </c>
       <c r="M45" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1718573520000</v>
+        <v>1719005520000</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R45" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R45" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240616183200, usuario: 131, produtos: [ { id: 4, descricao: "Pão de Queijo", quantidade: 1, preco: 3 }, ], valorTotal: 3, data: 1718573520000, status: "Concluído" },</v>
+        <v>{ id: 1719005520000, email: "aluno2@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pão de Queijo", quantidade: 1, preco: 3 }, ] },</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240616183130</v>
-      </c>
-      <c r="B46" s="2">
-        <v>128</v>
+      <c r="A46" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1719005489999.9998</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C46" s="2">
         <v>3</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E46" s="2">
         <v>1</v>
@@ -2910,7 +2918,7 @@
         <v>15</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I46" s="2">
         <v>1</v>
@@ -2923,34 +2931,34 @@
         <v>11</v>
       </c>
       <c r="L46" s="20">
-        <f t="shared" ca="1" si="13"/>
-        <v>45459.771874999999</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>45464.771874999999</v>
       </c>
       <c r="M46" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1718573489999.9998</v>
+        <v>1719005489999.9998</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R46" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R46" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240616183130, usuario: 128, produtos: [ { id: 3, descricao: "Empada", quantidade: 1, preco: 6.5 }, { id: 15, descricao: "Água", quantidade: 1, preco: 4.5 }, ], valorTotal: 11, data: 1718573490000, status: "Concluído" },</v>
+        <v>{ id: 1719005490000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Empada", quantidade: 1, preco: 6.5 }, { id: 15, descricao: "Água", quantidade: 1, preco: 4.5 }, ] },</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240616182000</v>
-      </c>
-      <c r="B47" s="2">
-        <v>150</v>
+      <c r="A47" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1719004800000.0002</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C47" s="2">
         <v>8</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E47" s="2">
         <v>1</v>
@@ -2968,33 +2976,33 @@
       </c>
       <c r="L47" s="20">
         <f ca="1">L43-13/60/24</f>
-        <v>45459.763888888891</v>
+        <v>45464.763888888891</v>
       </c>
       <c r="M47" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1718572800000.0002</v>
+        <v>1719004800000.0002</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R47" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R47" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240616182000, usuario: 150, produtos: [ { id: 8, descricao: "Enrolado de Presunto e Queijo", quantidade: 1, preco: 6.5 }, ], valorTotal: 6.5, data: 1718572800000, status: "Concluído" },</v>
+        <v>{ id: 1719004800000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Enrolado de Presunto e Queijo", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240615183300</v>
-      </c>
-      <c r="B48" s="11">
-        <v>177</v>
+      <c r="A48" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1718919180000.0002</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="C48" s="11">
         <v>4</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E48" s="11">
         <v>1</v>
@@ -3012,33 +3020,33 @@
       </c>
       <c r="L48" s="19">
         <f ca="1">L43-1</f>
-        <v>45458.772916666669</v>
+        <v>45463.772916666669</v>
       </c>
       <c r="M48" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>1718487180000.0002</v>
+        <v>1718919180000.0002</v>
       </c>
       <c r="N48" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R48" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R48" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240615183300, usuario: 177, produtos: [ { id: 4, descricao: "Pão de Queijo", quantidade: 1, preco: 3 }, ], valorTotal: 3, data: 1718487180000, status: "Concluído" },</v>
+        <v>{ id: 1718919180000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pão de Queijo", quantidade: 1, preco: 3 }, ] },</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240615183230</v>
-      </c>
-      <c r="B49" s="11">
-        <v>144</v>
+      <c r="A49" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1718919150000</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="C49" s="11">
         <v>14</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E49" s="11">
         <v>1</v>
@@ -3056,33 +3064,33 @@
       </c>
       <c r="L49" s="19">
         <f ca="1">L48-30/60/60/24</f>
-        <v>45458.772569444445</v>
+        <v>45463.772569444445</v>
       </c>
       <c r="M49" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>1718487150000</v>
+        <v>1718919150000</v>
       </c>
       <c r="N49" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R49" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R49" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240615183230, usuario: 144, produtos: [ { id: 14, descricao: "Vitaminas", quantidade: 1, preco: 7.5 }, ], valorTotal: 7.5, data: 1718487150000, status: "Concluído" },</v>
+        <v>{ id: 1718919150000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Vitaminas", quantidade: 1, preco: 7.5 }, ] },</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240615183200</v>
-      </c>
-      <c r="B50" s="11">
-        <v>156</v>
+      <c r="A50" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1718919120000</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="C50" s="11">
         <v>7</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E50" s="11">
         <v>1</v>
@@ -3094,7 +3102,7 @@
         <v>12</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I50" s="11">
         <v>1</v>
@@ -3107,34 +3115,34 @@
         <v>12.5</v>
       </c>
       <c r="L50" s="19">
-        <f t="shared" ref="L50:L51" ca="1" si="14">L49-30/60/60/24</f>
-        <v>45458.772222222222</v>
+        <f t="shared" ref="L50:L51" ca="1" si="13">L49-30/60/60/24</f>
+        <v>45463.772222222222</v>
       </c>
       <c r="M50" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>1718487120000</v>
+        <v>1718919120000</v>
       </c>
       <c r="N50" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R50" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R50" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240615183200, usuario: 156, produtos: [ { id: 7, descricao: "Hamburgão", quantidade: 1, preco: 6.5 }, { id: 12, descricao: "Refrigerante", quantidade: 1, preco: 6 }, ], valorTotal: 12.5, data: 1718487120000, status: "Concluído" },</v>
+        <v>{ id: 1718919120000, email: "aluno2@gmail.com", status: "finalizado" , carrinho: [ { nome: "Hamburgão", quantidade: 1, preco: 6.5 }, { id: 12, descricao: "Refrigerante", quantidade: 1, preco: 6 }, ] },</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240615183130</v>
-      </c>
-      <c r="B51" s="11">
-        <v>178</v>
+      <c r="A51" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1718919089999.9998</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="C51" s="11">
         <v>10</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E51" s="11">
         <v>1</v>
@@ -3151,34 +3159,34 @@
         <v>12</v>
       </c>
       <c r="L51" s="19">
-        <f t="shared" ca="1" si="14"/>
-        <v>45458.771874999999</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>45463.771874999999</v>
       </c>
       <c r="M51" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>1718487089999.9998</v>
+        <v>1718919089999.9998</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R51" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R51" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240615183130, usuario: 178, produtos: [ { id: 10, descricao: "Hambúrguer", quantidade: 1, preco: 12 }, ], valorTotal: 12, data: 1718487090000, status: "Concluído" },</v>
+        <v>{ id: 1718919090000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Hambúrguer", quantidade: 1, preco: 12 }, ] },</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240615182000</v>
-      </c>
-      <c r="B52" s="11">
-        <v>106</v>
+      <c r="A52" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1718918400000.0002</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="C52" s="11">
         <v>5</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E52" s="11">
         <v>1</v>
@@ -3190,7 +3198,7 @@
         <v>17</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I52" s="11">
         <v>1</v>
@@ -3204,33 +3212,33 @@
       </c>
       <c r="L52" s="19">
         <f ca="1">L48-13/60/24</f>
-        <v>45458.763888888891</v>
+        <v>45463.763888888891</v>
       </c>
       <c r="M52" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>1718486400000.0002</v>
+        <v>1718918400000.0002</v>
       </c>
       <c r="N52" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R52" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R52" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240615182000, usuario: 106, produtos: [ { id: 5, descricao: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, { id: 17, descricao: "Bombom", quantidade: 1, preco: 3 }, ], valorTotal: 8, data: 1718486400000, status: "Concluído" },</v>
+        <v>{ id: 1718918400000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, { id: 17, descricao: "Bombom", quantidade: 1, preco: 3 }, ] },</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240614183300</v>
-      </c>
-      <c r="B53" s="2">
-        <v>160</v>
+      <c r="A53" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1718832780000.0002</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C53" s="2">
         <v>10</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E53" s="2">
         <v>1</v>
@@ -3243,38 +3251,38 @@
       <c r="I53" s="2"/>
       <c r="J53" s="6"/>
       <c r="K53" s="7">
-        <f t="shared" ref="K53:K67" si="15">E53*F53+I53*J53</f>
+        <f t="shared" ref="K53:K67" si="14">E53*F53+I53*J53</f>
         <v>12</v>
       </c>
       <c r="L53" s="20">
         <f ca="1">L48-1</f>
-        <v>45457.772916666669</v>
+        <v>45462.772916666669</v>
       </c>
       <c r="M53" s="5">
-        <f t="shared" ref="M53:M67" ca="1" si="16">(L53-$Q$5-0.875)*86400*1000</f>
-        <v>1718400780000.0002</v>
+        <f t="shared" ref="M53:M67" ca="1" si="15">(L53-$Q$5-0.875)*86400*1000</f>
+        <v>1718832780000.0002</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R53" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R53" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240614183300, usuario: 160, produtos: [ { id: 10, descricao: "Hambúrguer", quantidade: 1, preco: 12 }, ], valorTotal: 12, data: 1718400780000, status: "Concluído" },</v>
+        <v>{ id: 1718832780000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Hambúrguer", quantidade: 1, preco: 12 }, ] },</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240614183230</v>
-      </c>
-      <c r="B54" s="2">
-        <v>191</v>
+      <c r="A54" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1718832750000</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C54" s="2">
         <v>14</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E54" s="2">
         <v>1</v>
@@ -3287,38 +3295,38 @@
       <c r="I54" s="2"/>
       <c r="J54" s="6"/>
       <c r="K54" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>7.5</v>
       </c>
       <c r="L54" s="20">
         <f ca="1">L53-30/60/60/24</f>
-        <v>45457.772569444445</v>
+        <v>45462.772569444445</v>
       </c>
       <c r="M54" s="5">
-        <f t="shared" ca="1" si="16"/>
-        <v>1718400750000</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1718832750000</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R54" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R54" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240614183230, usuario: 191, produtos: [ { id: 14, descricao: "Vitaminas", quantidade: 1, preco: 7.5 }, ], valorTotal: 7.5, data: 1718400750000, status: "Concluído" },</v>
+        <v>{ id: 1718832750000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Vitaminas", quantidade: 1, preco: 7.5 }, ] },</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240614183200</v>
-      </c>
-      <c r="B55" s="2">
-        <v>131</v>
+      <c r="A55" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1718832720000</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C55" s="2">
         <v>4</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E55" s="2">
         <v>1</v>
@@ -3331,38 +3339,38 @@
       <c r="I55" s="2"/>
       <c r="J55" s="6"/>
       <c r="K55" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="L55" s="20">
-        <f t="shared" ref="L55:L56" ca="1" si="17">L54-30/60/60/24</f>
-        <v>45457.772222222222</v>
+        <f t="shared" ref="L55:L56" ca="1" si="16">L54-30/60/60/24</f>
+        <v>45462.772222222222</v>
       </c>
       <c r="M55" s="5">
-        <f t="shared" ca="1" si="16"/>
-        <v>1718400720000</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1718832720000</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R55" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R55" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240614183200, usuario: 131, produtos: [ { id: 4, descricao: "Pão de Queijo", quantidade: 1, preco: 3 }, ], valorTotal: 3, data: 1718400720000, status: "Concluído" },</v>
+        <v>{ id: 1718832720000, email: "aluno2@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pão de Queijo", quantidade: 1, preco: 3 }, ] },</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240614183130</v>
-      </c>
-      <c r="B56" s="2">
-        <v>128</v>
+      <c r="A56" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1718832689999.9998</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C56" s="2">
         <v>15</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E56" s="2">
         <v>1</v>
@@ -3374,7 +3382,7 @@
         <v>15</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I56" s="2">
         <v>1</v>
@@ -3383,38 +3391,38 @@
         <v>4.5</v>
       </c>
       <c r="K56" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="L56" s="20">
-        <f t="shared" ca="1" si="17"/>
-        <v>45457.771874999999</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45462.771874999999</v>
       </c>
       <c r="M56" s="5">
-        <f t="shared" ca="1" si="16"/>
-        <v>1718400689999.9998</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1718832689999.9998</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R56" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R56" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240614183130, usuario: 128, produtos: [ { id: 15, descricao: "Água", quantidade: 1, preco: 4.5 }, { id: 15, descricao: "Água", quantidade: 1, preco: 4.5 }, ], valorTotal: 9, data: 1718400690000, status: "Concluído" },</v>
+        <v>{ id: 1718832690000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Água", quantidade: 1, preco: 4.5 }, { id: 15, descricao: "Água", quantidade: 1, preco: 4.5 }, ] },</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240614182000</v>
-      </c>
-      <c r="B57" s="2">
-        <v>150</v>
+      <c r="A57" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1718832000000.0002</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C57" s="2">
         <v>6</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E57" s="2">
         <v>1</v>
@@ -3427,38 +3435,38 @@
       <c r="I57" s="2"/>
       <c r="J57" s="6"/>
       <c r="K57" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>6.5</v>
       </c>
       <c r="L57" s="20">
         <f ca="1">L53-13/60/24</f>
-        <v>45457.763888888891</v>
+        <v>45462.763888888891</v>
       </c>
       <c r="M57" s="5">
-        <f t="shared" ca="1" si="16"/>
-        <v>1718400000000.0002</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1718832000000.0002</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R57" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R57" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240614182000, usuario: 150, produtos: [ { id: 6, descricao: "Pastel Assado", quantidade: 1, preco: 6.5 }, ], valorTotal: 6.5, data: 1718400000000, status: "Concluído" },</v>
+        <v>{ id: 1718832000000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pastel Assado", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240611183300</v>
-      </c>
-      <c r="B58" s="11">
-        <v>177</v>
+      <c r="A58" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1718573580000.0002</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="C58" s="11">
         <v>4</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E58" s="11">
         <v>1</v>
@@ -3471,38 +3479,38 @@
       <c r="I58" s="11"/>
       <c r="J58" s="13"/>
       <c r="K58" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="L58" s="19">
         <f ca="1">L53-3</f>
-        <v>45454.772916666669</v>
+        <v>45459.772916666669</v>
       </c>
       <c r="M58" s="17">
-        <f t="shared" ca="1" si="16"/>
-        <v>1718141580000.0002</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1718573580000.0002</v>
       </c>
       <c r="N58" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R58" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R58" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240611183300, usuario: 177, produtos: [ { id: 4, descricao: "Pão de Queijo", quantidade: 1, preco: 3 }, ], valorTotal: 3, data: 1718141580000, status: "Concluído" },</v>
+        <v>{ id: 1718573580000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pão de Queijo", quantidade: 1, preco: 3 }, ] },</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240611183230</v>
-      </c>
-      <c r="B59" s="11">
-        <v>144</v>
+      <c r="A59" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1718573550000</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="C59" s="11">
         <v>1</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E59" s="11">
         <v>1</v>
@@ -3515,38 +3523,38 @@
       <c r="I59" s="11"/>
       <c r="J59" s="13"/>
       <c r="K59" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="L59" s="19">
         <f ca="1">L58-30/60/60/24</f>
-        <v>45454.772569444445</v>
+        <v>45459.772569444445</v>
       </c>
       <c r="M59" s="17">
-        <f t="shared" ca="1" si="16"/>
-        <v>1718141550000</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1718573550000</v>
       </c>
       <c r="N59" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R59" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R59" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240611183230, usuario: 144, produtos: [ { id: 1, descricao: "Sanduíche Natual", quantidade: 1, preco: 10 }, ], valorTotal: 10, data: 1718141550000, status: "Concluído" },</v>
+        <v>{ id: 1718573550000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Sanduíche Natual", quantidade: 1, preco: 10 }, ] },</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240611183200</v>
-      </c>
-      <c r="B60" s="11">
-        <v>156</v>
+      <c r="A60" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1718573520000</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="C60" s="11">
         <v>7</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E60" s="11">
         <v>1</v>
@@ -3558,7 +3566,7 @@
         <v>13</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I60" s="11">
         <v>1</v>
@@ -3567,38 +3575,38 @@
         <v>6.5</v>
       </c>
       <c r="K60" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="L60" s="19">
-        <f t="shared" ref="L60:L61" ca="1" si="18">L59-30/60/60/24</f>
-        <v>45454.772222222222</v>
+        <f t="shared" ref="L60:L61" ca="1" si="17">L59-30/60/60/24</f>
+        <v>45459.772222222222</v>
       </c>
       <c r="M60" s="17">
-        <f t="shared" ca="1" si="16"/>
-        <v>1718141520000</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1718573520000</v>
       </c>
       <c r="N60" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R60" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R60" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240611183200, usuario: 156, produtos: [ { id: 7, descricao: "Hamburgão", quantidade: 1, preco: 6.5 }, { id: 13, descricao: "Sucos", quantidade: 1, preco: 6.5 }, ], valorTotal: 13, data: 1718141520000, status: "Concluído" },</v>
+        <v>{ id: 1718573520000, email: "aluno2@gmail.com", status: "finalizado" , carrinho: [ { nome: "Hamburgão", quantidade: 1, preco: 6.5 }, { id: 13, descricao: "Sucos", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240611183130</v>
-      </c>
-      <c r="B61" s="11">
-        <v>178</v>
+      <c r="A61" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1718573489999.9998</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="C61" s="11">
         <v>2</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E61" s="11">
         <v>1</v>
@@ -3611,38 +3619,38 @@
       <c r="I61" s="11"/>
       <c r="J61" s="13"/>
       <c r="K61" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>6.5</v>
       </c>
       <c r="L61" s="19">
-        <f t="shared" ca="1" si="18"/>
-        <v>45454.771874999999</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45459.771874999999</v>
       </c>
       <c r="M61" s="17">
-        <f t="shared" ca="1" si="16"/>
-        <v>1718141489999.9998</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1718573489999.9998</v>
       </c>
       <c r="N61" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R61" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R61" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240611183130, usuario: 178, produtos: [ { id: 2, descricao: "Coxinha", quantidade: 1, preco: 6.5 }, ], valorTotal: 6.5, data: 1718141490000, status: "Concluído" },</v>
+        <v>{ id: 1718573490000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Coxinha", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240611182000</v>
-      </c>
-      <c r="B62" s="11">
-        <v>106</v>
+      <c r="A62" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1718572800000.0002</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="C62" s="11">
         <v>15</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E62" s="11">
         <v>1</v>
@@ -3655,38 +3663,38 @@
       <c r="I62" s="11"/>
       <c r="J62" s="13"/>
       <c r="K62" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>4.5</v>
       </c>
       <c r="L62" s="19">
         <f ca="1">L58-13/60/24</f>
-        <v>45454.763888888891</v>
+        <v>45459.763888888891</v>
       </c>
       <c r="M62" s="17">
-        <f t="shared" ca="1" si="16"/>
-        <v>1718140800000.0002</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1718572800000.0002</v>
       </c>
       <c r="N62" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R62" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R62" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240611182000, usuario: 106, produtos: [ { id: 15, descricao: "Água", quantidade: 1, preco: 4.5 }, ], valorTotal: 4.5, data: 1718140800000, status: "Concluído" },</v>
+        <v>{ id: 1718572800000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Água", quantidade: 1, preco: 4.5 }, ] },</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240610183300</v>
-      </c>
-      <c r="B63" s="2">
-        <v>160</v>
+      <c r="A63" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1718487180000.0002</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C63" s="2">
         <v>4</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E63" s="2">
         <v>1</v>
@@ -3699,38 +3707,38 @@
       <c r="I63" s="2"/>
       <c r="J63" s="6"/>
       <c r="K63" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="L63" s="20">
         <f ca="1">L58-1</f>
-        <v>45453.772916666669</v>
+        <v>45458.772916666669</v>
       </c>
       <c r="M63" s="5">
-        <f t="shared" ca="1" si="16"/>
-        <v>1718055180000.0002</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1718487180000.0002</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R63" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R63" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240610183300, usuario: 160, produtos: [ { id: 4, descricao: "Pão de Queijo", quantidade: 1, preco: 3 }, ], valorTotal: 3, data: 1718055180000, status: "Concluído" },</v>
+        <v>{ id: 1718487180000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pão de Queijo", quantidade: 1, preco: 3 }, ] },</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240610183230</v>
-      </c>
-      <c r="B64" s="2">
-        <v>191</v>
+      <c r="A64" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1718487150000</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C64" s="2">
         <v>6</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E64" s="2">
         <v>1</v>
@@ -3742,7 +3750,7 @@
         <v>13</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I64" s="2">
         <v>1</v>
@@ -3751,38 +3759,38 @@
         <v>6.5</v>
       </c>
       <c r="K64" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="L64" s="20">
         <f ca="1">L63-30/60/60/24</f>
-        <v>45453.772569444445</v>
+        <v>45458.772569444445</v>
       </c>
       <c r="M64" s="5">
-        <f t="shared" ca="1" si="16"/>
-        <v>1718055150000</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1718487150000</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R64" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R64" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240610183230, usuario: 191, produtos: [ { id: 6, descricao: "Pastel Assado", quantidade: 1, preco: 6.5 }, { id: 13, descricao: "Sucos", quantidade: 1, preco: 6.5 }, ], valorTotal: 13, data: 1718055150000, status: "Concluído" },</v>
+        <v>{ id: 1718487150000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pastel Assado", quantidade: 1, preco: 6.5 }, { id: 13, descricao: "Sucos", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240610183200</v>
-      </c>
-      <c r="B65" s="2">
-        <v>131</v>
+      <c r="A65" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1718487120000</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C65" s="2">
         <v>5</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E65" s="2">
         <v>1</v>
@@ -3795,38 +3803,38 @@
       <c r="I65" s="2"/>
       <c r="J65" s="6"/>
       <c r="K65" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="L65" s="20">
-        <f t="shared" ref="L65:L66" ca="1" si="19">L64-30/60/60/24</f>
-        <v>45453.772222222222</v>
+        <f t="shared" ref="L65:L66" ca="1" si="18">L64-30/60/60/24</f>
+        <v>45458.772222222222</v>
       </c>
       <c r="M65" s="5">
-        <f t="shared" ca="1" si="16"/>
-        <v>1718055120000</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1718487120000</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R65" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R65" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240610183200, usuario: 131, produtos: [ { id: 5, descricao: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, ], valorTotal: 5, data: 1718055120000, status: "Concluído" },</v>
+        <v>{ id: 1718487120000, email: "aluno2@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, ] },</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240610183130</v>
-      </c>
-      <c r="B66" s="2">
-        <v>128</v>
+      <c r="A66" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1718487089999.9998</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C66" s="2">
         <v>3</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E66" s="2">
         <v>1</v>
@@ -3838,7 +3846,7 @@
         <v>15</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I66" s="2">
         <v>1</v>
@@ -3847,38 +3855,38 @@
         <v>4.5</v>
       </c>
       <c r="K66" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="L66" s="20">
-        <f t="shared" ca="1" si="19"/>
-        <v>45453.771874999999</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>45458.771874999999</v>
       </c>
       <c r="M66" s="5">
-        <f t="shared" ca="1" si="16"/>
-        <v>1718055089999.9998</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1718487089999.9998</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R66" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R66" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240610183130, usuario: 128, produtos: [ { id: 3, descricao: "Empada", quantidade: 1, preco: 6.5 }, { id: 15, descricao: "Água", quantidade: 1, preco: 4.5 }, ], valorTotal: 11, data: 1718055090000, status: "Concluído" },</v>
+        <v>{ id: 1718487090000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Empada", quantidade: 1, preco: 6.5 }, { id: 15, descricao: "Água", quantidade: 1, preco: 4.5 }, ] },</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240610182000</v>
-      </c>
-      <c r="B67" s="2">
-        <v>150</v>
+      <c r="A67" s="17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1718486400000.0002</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C67" s="2">
         <v>8</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E67" s="2">
         <v>1</v>
@@ -3891,38 +3899,38 @@
       <c r="I67" s="2"/>
       <c r="J67" s="6"/>
       <c r="K67" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>6.5</v>
       </c>
       <c r="L67" s="20">
         <f ca="1">L63-13/60/24</f>
-        <v>45453.763888888891</v>
+        <v>45458.763888888891</v>
       </c>
       <c r="M67" s="5">
-        <f t="shared" ca="1" si="16"/>
-        <v>1718054400000.0002</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1718486400000.0002</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R67" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R67" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 20240610182000, usuario: 150, produtos: [ { id: 8, descricao: "Enrolado de Presunto e Queijo", quantidade: 1, preco: 6.5 }, ], valorTotal: 6.5, data: 1718054400000, status: "Concluído" },</v>
+        <v>{ id: 1718486400000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Enrolado de Presunto e Queijo", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240609183300</v>
-      </c>
-      <c r="B68" s="11">
-        <v>177</v>
+      <c r="A68" s="17">
+        <f t="shared" ref="A68:A131" ca="1" si="19">M68</f>
+        <v>1718400780000.0002</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="C68" s="11">
         <v>4</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E68" s="11">
         <v>1</v>
@@ -3940,33 +3948,33 @@
       </c>
       <c r="L68" s="19">
         <f ca="1">L63-1</f>
-        <v>45452.772916666669</v>
+        <v>45457.772916666669</v>
       </c>
       <c r="M68" s="17">
         <f t="shared" ref="M68:M92" ca="1" si="21">(L68-$Q$5-0.875)*86400*1000</f>
-        <v>1717968780000.0002</v>
+        <v>1718400780000.0002</v>
       </c>
       <c r="N68" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R68" s="32" t="str">
-        <f t="shared" ref="R68:R131" ca="1" si="22">CONCATENATE("{ id: ",A68,", usuario: ",B68,", produtos: [ ", "{ id: ",C68,", descricao: ","""",D68,"""",", quantidade: ",E68,", preco: ",SUBSTITUTE(F68,",",".")," },",IF(G68&lt;&gt;"",CONCATENATE(" { id: ",G68,", descricao: ","""",H68,"""",", quantidade: ",I68,", preco: ",SUBSTITUTE(J68,",",".")," },"),""), " ], valorTotal: ",SUBSTITUTE(K68,",","."),", data: ",M68,", status: ","""",N68,""""," },")</f>
-        <v>{ id: 20240609183300, usuario: 177, produtos: [ { id: 4, descricao: "Pão de Queijo", quantidade: 1, preco: 3 }, ], valorTotal: 3, data: 1717968780000, status: "Concluído" },</v>
+        <v>31</v>
+      </c>
+      <c r="R68" s="24" t="str">
+        <f t="shared" ref="R68:R131" ca="1" si="22">CONCATENATE("{ id: ",A68,", email: """,B68,""", status: ","""",N68,""""," , carrinho: [ ", "{ nome: ","""",D68,"""",", quantidade: ",E68,", preco: ",SUBSTITUTE(F68,",",".")," },",IF(G68&lt;&gt;"",CONCATENATE(" { id: ",G68,", descricao: ","""",H68,"""",", quantidade: ",I68,", preco: ",SUBSTITUTE(J68,",",".")," },"),""), " ] },")</f>
+        <v>{ id: 1718400780000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pão de Queijo", quantidade: 1, preco: 3 }, ] },</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240609183230</v>
-      </c>
-      <c r="B69" s="11">
-        <v>144</v>
+      <c r="A69" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1718400750000</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="C69" s="11">
         <v>1</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E69" s="11">
         <v>1</v>
@@ -3984,33 +3992,33 @@
       </c>
       <c r="L69" s="19">
         <f ca="1">L68-30/60/60/24</f>
-        <v>45452.772569444445</v>
+        <v>45457.772569444445</v>
       </c>
       <c r="M69" s="17">
         <f t="shared" ca="1" si="21"/>
-        <v>1717968750000</v>
+        <v>1718400750000</v>
       </c>
       <c r="N69" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R69" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R69" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240609183230, usuario: 144, produtos: [ { id: 1, descricao: "Sanduíche Natual", quantidade: 1, preco: 10 }, ], valorTotal: 10, data: 1717968750000, status: "Concluído" },</v>
+        <v>{ id: 1718400750000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Sanduíche Natual", quantidade: 1, preco: 10 }, ] },</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240609183200</v>
-      </c>
-      <c r="B70" s="11">
-        <v>156</v>
+      <c r="A70" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1718400720000</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="C70" s="11">
         <v>5</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E70" s="11">
         <v>1</v>
@@ -4022,7 +4030,7 @@
         <v>13</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I70" s="11">
         <v>1</v>
@@ -4036,33 +4044,33 @@
       </c>
       <c r="L70" s="19">
         <f t="shared" ref="L70:L71" ca="1" si="23">L69-30/60/60/24</f>
-        <v>45452.772222222222</v>
+        <v>45457.772222222222</v>
       </c>
       <c r="M70" s="17">
         <f t="shared" ca="1" si="21"/>
-        <v>1717968720000</v>
+        <v>1718400720000</v>
       </c>
       <c r="N70" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R70" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R70" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240609183200, usuario: 156, produtos: [ { id: 5, descricao: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, { id: 13, descricao: "Sucos", quantidade: 1, preco: 6.5 }, ], valorTotal: 11.5, data: 1717968720000, status: "Concluído" },</v>
+        <v>{ id: 1718400720000, email: "aluno2@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, { id: 13, descricao: "Sucos", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240609183130</v>
-      </c>
-      <c r="B71" s="11">
-        <v>178</v>
+      <c r="A71" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1718400689999.9998</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="C71" s="11">
         <v>2</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E71" s="11">
         <v>1</v>
@@ -4080,33 +4088,33 @@
       </c>
       <c r="L71" s="19">
         <f t="shared" ca="1" si="23"/>
-        <v>45452.771874999999</v>
+        <v>45457.771874999999</v>
       </c>
       <c r="M71" s="17">
         <f t="shared" ca="1" si="21"/>
-        <v>1717968689999.9998</v>
+        <v>1718400689999.9998</v>
       </c>
       <c r="N71" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R71" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R71" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240609183130, usuario: 178, produtos: [ { id: 2, descricao: "Coxinha", quantidade: 1, preco: 6.5 }, ], valorTotal: 6.5, data: 1717968690000, status: "Concluído" },</v>
+        <v>{ id: 1718400690000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Coxinha", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240609182000</v>
-      </c>
-      <c r="B72" s="11">
-        <v>106</v>
+      <c r="A72" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1718400000000.0002</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="C72" s="11">
         <v>14</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E72" s="11">
         <v>1</v>
@@ -4124,33 +4132,33 @@
       </c>
       <c r="L72" s="19">
         <f ca="1">L68-13/60/24</f>
-        <v>45452.763888888891</v>
+        <v>45457.763888888891</v>
       </c>
       <c r="M72" s="17">
         <f t="shared" ca="1" si="21"/>
-        <v>1717968000000.0002</v>
+        <v>1718400000000.0002</v>
       </c>
       <c r="N72" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R72" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R72" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240609182000, usuario: 106, produtos: [ { id: 14, descricao: "Vitaminas", quantidade: 1, preco: 7.5 }, ], valorTotal: 7.5, data: 1717968000000, status: "Concluído" },</v>
+        <v>{ id: 1718400000000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Vitaminas", quantidade: 1, preco: 7.5 }, ] },</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240608183300</v>
-      </c>
-      <c r="B73" s="2">
-        <v>160</v>
+      <c r="A73" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1718314380000.0002</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C73" s="2">
         <v>4</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E73" s="2">
         <v>1</v>
@@ -4168,33 +4176,33 @@
       </c>
       <c r="L73" s="20">
         <f ca="1">L68-1</f>
-        <v>45451.772916666669</v>
+        <v>45456.772916666669</v>
       </c>
       <c r="M73" s="5">
         <f t="shared" ca="1" si="21"/>
-        <v>1717882380000.0002</v>
+        <v>1718314380000.0002</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R73" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R73" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240608183300, usuario: 160, produtos: [ { id: 4, descricao: "Pão de Queijo", quantidade: 1, preco: 3 }, ], valorTotal: 3, data: 1717882380000, status: "Concluído" },</v>
+        <v>{ id: 1718314380000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pão de Queijo", quantidade: 1, preco: 3 }, ] },</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240608183230</v>
-      </c>
-      <c r="B74" s="2">
-        <v>191</v>
+      <c r="A74" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1718314350000</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C74" s="2">
         <v>8</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E74" s="2">
         <v>1</v>
@@ -4206,7 +4214,7 @@
         <v>13</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I74" s="2">
         <v>1</v>
@@ -4220,33 +4228,33 @@
       </c>
       <c r="L74" s="20">
         <f ca="1">L73-30/60/60/24</f>
-        <v>45451.772569444445</v>
+        <v>45456.772569444445</v>
       </c>
       <c r="M74" s="5">
         <f t="shared" ca="1" si="21"/>
-        <v>1717882350000</v>
+        <v>1718314350000</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R74" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R74" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240608183230, usuario: 191, produtos: [ { id: 8, descricao: "Enrolado de Presunto e Queijo", quantidade: 1, preco: 6.5 }, { id: 13, descricao: "Sucos", quantidade: 1, preco: 6.5 }, ], valorTotal: 13, data: 1717882350000, status: "Concluído" },</v>
+        <v>{ id: 1718314350000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Enrolado de Presunto e Queijo", quantidade: 1, preco: 6.5 }, { id: 13, descricao: "Sucos", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240608183200</v>
-      </c>
-      <c r="B75" s="2">
-        <v>131</v>
+      <c r="A75" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1718314320000</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C75" s="2">
         <v>5</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E75" s="2">
         <v>1</v>
@@ -4264,33 +4272,33 @@
       </c>
       <c r="L75" s="20">
         <f t="shared" ref="L75:L76" ca="1" si="24">L74-30/60/60/24</f>
-        <v>45451.772222222222</v>
+        <v>45456.772222222222</v>
       </c>
       <c r="M75" s="5">
         <f t="shared" ca="1" si="21"/>
-        <v>1717882320000</v>
+        <v>1718314320000</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R75" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R75" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240608183200, usuario: 131, produtos: [ { id: 5, descricao: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, ], valorTotal: 5, data: 1717882320000, status: "Concluído" },</v>
+        <v>{ id: 1718314320000, email: "aluno2@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, ] },</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240608183130</v>
-      </c>
-      <c r="B76" s="2">
-        <v>128</v>
+      <c r="A76" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1718314289999.9998</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C76" s="2">
         <v>7</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E76" s="2">
         <v>1</v>
@@ -4302,7 +4310,7 @@
         <v>12</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I76" s="2">
         <v>1</v>
@@ -4316,33 +4324,33 @@
       </c>
       <c r="L76" s="20">
         <f t="shared" ca="1" si="24"/>
-        <v>45451.771874999999</v>
+        <v>45456.771874999999</v>
       </c>
       <c r="M76" s="5">
         <f t="shared" ca="1" si="21"/>
-        <v>1717882289999.9998</v>
+        <v>1718314289999.9998</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R76" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R76" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240608183130, usuario: 128, produtos: [ { id: 7, descricao: "Hamburgão", quantidade: 1, preco: 6.5 }, { id: 12, descricao: "Refrigerante", quantidade: 1, preco: 6 }, ], valorTotal: 12.5, data: 1717882290000, status: "Concluído" },</v>
+        <v>{ id: 1718314290000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Hamburgão", quantidade: 1, preco: 6.5 }, { id: 12, descricao: "Refrigerante", quantidade: 1, preco: 6 }, ] },</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>20240608182000</v>
-      </c>
-      <c r="B77" s="2">
-        <v>150</v>
+      <c r="A77" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1718313600000.0002</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C77" s="2">
         <v>8</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E77" s="2">
         <v>1</v>
@@ -4360,33 +4368,33 @@
       </c>
       <c r="L77" s="20">
         <f ca="1">L73-13/60/24</f>
-        <v>45451.763888888891</v>
+        <v>45456.763888888891</v>
       </c>
       <c r="M77" s="5">
         <f t="shared" ca="1" si="21"/>
-        <v>1717881600000.0002</v>
+        <v>1718313600000.0002</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R77" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R77" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240608182000, usuario: 150, produtos: [ { id: 8, descricao: "Enrolado de Presunto e Queijo", quantidade: 1, preco: 6.5 }, ], valorTotal: 6.5, data: 1717881600000, status: "Concluído" },</v>
+        <v>{ id: 1718313600000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Enrolado de Presunto e Queijo", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="str">
-        <f t="shared" ref="A78:A132" ca="1" si="25">CONCATENATE(YEAR(L78),TEXT(MONTH(L78),"00"),TEXT(DAY(L78),"00"),TEXT(HOUR(L78),"00"),TEXT(MINUTE(L78),"00"),TEXT(SECOND(L78),"00"))</f>
-        <v>20240607183300</v>
-      </c>
-      <c r="B78" s="11">
-        <v>155</v>
+      <c r="A78" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1718227980000.0002</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="C78" s="11">
         <v>5</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E78" s="11">
         <v>1</v>
@@ -4404,33 +4412,33 @@
       </c>
       <c r="L78" s="19">
         <f ca="1">L73-1</f>
-        <v>45450.772916666669</v>
+        <v>45455.772916666669</v>
       </c>
       <c r="M78" s="17">
         <f t="shared" ca="1" si="21"/>
-        <v>1717795980000.0002</v>
+        <v>1718227980000.0002</v>
       </c>
       <c r="N78" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R78" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R78" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240607183300, usuario: 155, produtos: [ { id: 5, descricao: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, ], valorTotal: 5, data: 1717795980000, status: "Concluído" },</v>
+        <v>{ id: 1718227980000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, ] },</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240607183230</v>
-      </c>
-      <c r="B79" s="11">
-        <v>110</v>
+      <c r="A79" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1718227950000</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="C79" s="11">
         <v>8</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E79" s="11">
         <v>1</v>
@@ -4442,7 +4450,7 @@
         <v>15</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I79" s="11">
         <v>1</v>
@@ -4456,33 +4464,33 @@
       </c>
       <c r="L79" s="19">
         <f ca="1">L78-30/60/60/24</f>
-        <v>45450.772569444445</v>
+        <v>45455.772569444445</v>
       </c>
       <c r="M79" s="17">
         <f t="shared" ca="1" si="21"/>
-        <v>1717795950000</v>
+        <v>1718227950000</v>
       </c>
       <c r="N79" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R79" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R79" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240607183230, usuario: 110, produtos: [ { id: 8, descricao: "Enrolado de Presunto e Queijo", quantidade: 1, preco: 6.5 }, { id: 15, descricao: "Água", quantidade: 1, preco: 4.5 }, ], valorTotal: 11, data: 1717795950000, status: "Concluído" },</v>
+        <v>{ id: 1718227950000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Enrolado de Presunto e Queijo", quantidade: 1, preco: 6.5 }, { id: 15, descricao: "Água", quantidade: 1, preco: 4.5 }, ] },</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="11" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240607183200</v>
-      </c>
-      <c r="B80" s="11">
-        <v>188</v>
+      <c r="A80" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1718227920000</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="C80" s="11">
         <v>9</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E80" s="11">
         <v>1</v>
@@ -4499,34 +4507,34 @@
         <v>6.5</v>
       </c>
       <c r="L80" s="19">
-        <f t="shared" ref="L80:L81" ca="1" si="26">L79-30/60/60/24</f>
-        <v>45450.772222222222</v>
+        <f t="shared" ref="L80:L81" ca="1" si="25">L79-30/60/60/24</f>
+        <v>45455.772222222222</v>
       </c>
       <c r="M80" s="17">
         <f t="shared" ca="1" si="21"/>
-        <v>1717795920000</v>
+        <v>1718227920000</v>
       </c>
       <c r="N80" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R80" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R80" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240607183200, usuario: 188, produtos: [ { id: 9, descricao: "Enrolado de Presunto e Queijo", quantidade: 1, preco: 6.5 }, ], valorTotal: 6.5, data: 1717795920000, status: "Concluído" },</v>
+        <v>{ id: 1718227920000, email: "aluno2@gmail.com", status: "finalizado" , carrinho: [ { nome: "Enrolado de Presunto e Queijo", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240607183130</v>
-      </c>
-      <c r="B81" s="11">
-        <v>108</v>
+      <c r="A81" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1718227889999.9998</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="C81" s="11">
         <v>11</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E81" s="11">
         <v>1</v>
@@ -4538,7 +4546,7 @@
         <v>19</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I81" s="11">
         <v>1</v>
@@ -4551,34 +4559,34 @@
         <v>17.5</v>
       </c>
       <c r="L81" s="19">
-        <f t="shared" ca="1" si="26"/>
-        <v>45450.771874999999</v>
+        <f t="shared" ca="1" si="25"/>
+        <v>45455.771874999999</v>
       </c>
       <c r="M81" s="17">
         <f t="shared" ca="1" si="21"/>
-        <v>1717795889999.9998</v>
+        <v>1718227889999.9998</v>
       </c>
       <c r="N81" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R81" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R81" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240607183130, usuario: 108, produtos: [ { id: 11, descricao: "Batata Frita", quantidade: 1, preco: 15 }, { id: 19, descricao: "Chicletes", quantidade: 1, preco: 2.5 }, ], valorTotal: 17.5, data: 1717795890000, status: "Concluído" },</v>
+        <v>{ id: 1718227890000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Batata Frita", quantidade: 1, preco: 15 }, { id: 19, descricao: "Chicletes", quantidade: 1, preco: 2.5 }, ] },</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="11" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240607182000</v>
-      </c>
-      <c r="B82" s="11">
-        <v>135</v>
+      <c r="A82" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1718227200000.0002</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="C82" s="11">
         <v>15</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E82" s="11">
         <v>1</v>
@@ -4590,7 +4598,7 @@
         <v>17</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I82" s="11">
         <v>1</v>
@@ -4604,33 +4612,33 @@
       </c>
       <c r="L82" s="19">
         <f ca="1">L78-13/60/24</f>
-        <v>45450.763888888891</v>
+        <v>45455.763888888891</v>
       </c>
       <c r="M82" s="17">
         <f t="shared" ca="1" si="21"/>
-        <v>1717795200000.0002</v>
+        <v>1718227200000.0002</v>
       </c>
       <c r="N82" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R82" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R82" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240607182000, usuario: 135, produtos: [ { id: 15, descricao: "Água", quantidade: 1, preco: 4.5 }, { id: 17, descricao: "Bombom", quantidade: 1, preco: 3 }, ], valorTotal: 7.5, data: 1717795200000, status: "Concluído" },</v>
+        <v>{ id: 1718227200000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Água", quantidade: 1, preco: 4.5 }, { id: 17, descricao: "Bombom", quantidade: 1, preco: 3 }, ] },</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83" s="11" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240604183300</v>
-      </c>
-      <c r="B83" s="11">
-        <v>177</v>
+      <c r="A83" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717968780000.0002</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="C83" s="11">
         <v>4</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E83" s="11">
         <v>1</v>
@@ -4648,33 +4656,33 @@
       </c>
       <c r="L83" s="19">
         <f ca="1">L78-3</f>
-        <v>45447.772916666669</v>
+        <v>45452.772916666669</v>
       </c>
       <c r="M83" s="17">
         <f t="shared" ca="1" si="21"/>
-        <v>1717536780000.0002</v>
+        <v>1717968780000.0002</v>
       </c>
       <c r="N83" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R83" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R83" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240604183300, usuario: 177, produtos: [ { id: 4, descricao: "Pão de Queijo", quantidade: 1, preco: 3 }, ], valorTotal: 3, data: 1717536780000, status: "Concluído" },</v>
+        <v>{ id: 1717968780000, email: "aluno2@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pão de Queijo", quantidade: 1, preco: 3 }, ] },</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="11" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240604183230</v>
-      </c>
-      <c r="B84" s="11">
-        <v>144</v>
+      <c r="A84" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717968750000</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="C84" s="11">
         <v>1</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E84" s="11">
         <v>1</v>
@@ -4692,33 +4700,33 @@
       </c>
       <c r="L84" s="19">
         <f ca="1">L83-30/60/60/24</f>
-        <v>45447.772569444445</v>
+        <v>45452.772569444445</v>
       </c>
       <c r="M84" s="17">
         <f t="shared" ca="1" si="21"/>
-        <v>1717536750000</v>
+        <v>1717968750000</v>
       </c>
       <c r="N84" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R84" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R84" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240604183230, usuario: 144, produtos: [ { id: 1, descricao: "Sanduíche Natual", quantidade: 1, preco: 10 }, ], valorTotal: 10, data: 1717536750000, status: "Concluído" },</v>
+        <v>{ id: 1717968750000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Sanduíche Natual", quantidade: 1, preco: 10 }, ] },</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="11" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240604183200</v>
-      </c>
-      <c r="B85" s="11">
-        <v>156</v>
+      <c r="A85" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717968720000</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="C85" s="11">
         <v>7</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E85" s="11">
         <v>1</v>
@@ -4730,7 +4738,7 @@
         <v>13</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I85" s="11">
         <v>1</v>
@@ -4743,34 +4751,34 @@
         <v>13</v>
       </c>
       <c r="L85" s="19">
-        <f t="shared" ref="L85:L86" ca="1" si="27">L84-30/60/60/24</f>
-        <v>45447.772222222222</v>
+        <f t="shared" ref="L85:L86" ca="1" si="26">L84-30/60/60/24</f>
+        <v>45452.772222222222</v>
       </c>
       <c r="M85" s="17">
         <f t="shared" ca="1" si="21"/>
-        <v>1717536720000</v>
+        <v>1717968720000</v>
       </c>
       <c r="N85" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R85" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R85" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240604183200, usuario: 156, produtos: [ { id: 7, descricao: "Hamburgão", quantidade: 1, preco: 6.5 }, { id: 13, descricao: "Sucos", quantidade: 1, preco: 6.5 }, ], valorTotal: 13, data: 1717536720000, status: "Concluído" },</v>
+        <v>{ id: 1717968720000, email: "aluno2@gmail.com", status: "finalizado" , carrinho: [ { nome: "Hamburgão", quantidade: 1, preco: 6.5 }, { id: 13, descricao: "Sucos", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86" s="11" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240604183130</v>
-      </c>
-      <c r="B86" s="11">
-        <v>178</v>
+      <c r="A86" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717968689999.9998</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="C86" s="11">
         <v>2</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E86" s="11">
         <v>1</v>
@@ -4787,34 +4795,34 @@
         <v>6.5</v>
       </c>
       <c r="L86" s="19">
-        <f t="shared" ca="1" si="27"/>
-        <v>45447.771874999999</v>
+        <f t="shared" ca="1" si="26"/>
+        <v>45452.771874999999</v>
       </c>
       <c r="M86" s="17">
         <f t="shared" ca="1" si="21"/>
-        <v>1717536689999.9998</v>
+        <v>1717968689999.9998</v>
       </c>
       <c r="N86" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R86" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R86" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240604183130, usuario: 178, produtos: [ { id: 2, descricao: "Coxinha", quantidade: 1, preco: 6.5 }, ], valorTotal: 6.5, data: 1717536690000, status: "Concluído" },</v>
+        <v>{ id: 1717968690000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Coxinha", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="11" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240604182000</v>
-      </c>
-      <c r="B87" s="11">
-        <v>106</v>
+      <c r="A87" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717968000000.0002</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="C87" s="11">
         <v>15</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E87" s="11">
         <v>1</v>
@@ -4832,33 +4840,33 @@
       </c>
       <c r="L87" s="19">
         <f ca="1">L83-13/60/24</f>
-        <v>45447.763888888891</v>
+        <v>45452.763888888891</v>
       </c>
       <c r="M87" s="17">
         <f t="shared" ca="1" si="21"/>
-        <v>1717536000000.0002</v>
+        <v>1717968000000.0002</v>
       </c>
       <c r="N87" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R87" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R87" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240604182000, usuario: 106, produtos: [ { id: 15, descricao: "Água", quantidade: 1, preco: 4.5 }, ], valorTotal: 4.5, data: 1717536000000, status: "Concluído" },</v>
+        <v>{ id: 1717968000000, email: "aluno2@gmail.com", status: "finalizado" , carrinho: [ { nome: "Água", quantidade: 1, preco: 4.5 }, ] },</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240603183300</v>
-      </c>
-      <c r="B88" s="2">
-        <v>160</v>
+      <c r="A88" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717882380000.0002</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C88" s="2">
         <v>4</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E88" s="2">
         <v>1</v>
@@ -4876,33 +4884,33 @@
       </c>
       <c r="L88" s="20">
         <f ca="1">L83-1</f>
-        <v>45446.772916666669</v>
+        <v>45451.772916666669</v>
       </c>
       <c r="M88" s="5">
         <f t="shared" ca="1" si="21"/>
-        <v>1717450380000.0002</v>
+        <v>1717882380000.0002</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R88" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R88" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240603183300, usuario: 160, produtos: [ { id: 4, descricao: "Pão de Queijo", quantidade: 1, preco: 3 }, ], valorTotal: 3, data: 1717450380000, status: "Concluído" },</v>
+        <v>{ id: 1717882380000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pão de Queijo", quantidade: 1, preco: 3 }, ] },</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240603183230</v>
-      </c>
-      <c r="B89" s="2">
-        <v>191</v>
+      <c r="A89" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717882350000</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C89" s="2">
         <v>6</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E89" s="2">
         <v>1</v>
@@ -4914,7 +4922,7 @@
         <v>13</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I89" s="2">
         <v>1</v>
@@ -4928,33 +4936,33 @@
       </c>
       <c r="L89" s="20">
         <f ca="1">L88-30/60/60/24</f>
-        <v>45446.772569444445</v>
+        <v>45451.772569444445</v>
       </c>
       <c r="M89" s="5">
         <f t="shared" ca="1" si="21"/>
-        <v>1717450350000</v>
+        <v>1717882350000</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R89" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R89" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240603183230, usuario: 191, produtos: [ { id: 6, descricao: "Pastel Assado", quantidade: 1, preco: 6.5 }, { id: 13, descricao: "Sucos", quantidade: 1, preco: 6.5 }, ], valorTotal: 13, data: 1717450350000, status: "Concluído" },</v>
+        <v>{ id: 1717882350000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pastel Assado", quantidade: 1, preco: 6.5 }, { id: 13, descricao: "Sucos", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240603183200</v>
-      </c>
-      <c r="B90" s="2">
-        <v>131</v>
+      <c r="A90" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717882320000</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C90" s="2">
         <v>5</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E90" s="2">
         <v>1</v>
@@ -4971,34 +4979,34 @@
         <v>5</v>
       </c>
       <c r="L90" s="20">
-        <f t="shared" ref="L90:L91" ca="1" si="28">L89-30/60/60/24</f>
-        <v>45446.772222222222</v>
+        <f t="shared" ref="L90:L91" ca="1" si="27">L89-30/60/60/24</f>
+        <v>45451.772222222222</v>
       </c>
       <c r="M90" s="5">
         <f t="shared" ca="1" si="21"/>
-        <v>1717450320000</v>
+        <v>1717882320000</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R90" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R90" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240603183200, usuario: 131, produtos: [ { id: 5, descricao: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, ], valorTotal: 5, data: 1717450320000, status: "Concluído" },</v>
+        <v>{ id: 1717882320000, email: "aluno2@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, ] },</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240603183130</v>
-      </c>
-      <c r="B91" s="2">
-        <v>128</v>
+      <c r="A91" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717882289999.9998</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C91" s="2">
         <v>3</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E91" s="2">
         <v>1</v>
@@ -5010,7 +5018,7 @@
         <v>15</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I91" s="2">
         <v>1</v>
@@ -5023,34 +5031,34 @@
         <v>11</v>
       </c>
       <c r="L91" s="20">
-        <f t="shared" ca="1" si="28"/>
-        <v>45446.771874999999</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>45451.771874999999</v>
       </c>
       <c r="M91" s="5">
         <f t="shared" ca="1" si="21"/>
-        <v>1717450289999.9998</v>
+        <v>1717882289999.9998</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R91" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R91" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240603183130, usuario: 128, produtos: [ { id: 3, descricao: "Empada", quantidade: 1, preco: 6.5 }, { id: 15, descricao: "Água", quantidade: 1, preco: 4.5 }, ], valorTotal: 11, data: 1717450290000, status: "Concluído" },</v>
+        <v>{ id: 1717882290000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Empada", quantidade: 1, preco: 6.5 }, { id: 15, descricao: "Água", quantidade: 1, preco: 4.5 }, ] },</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240603182000</v>
-      </c>
-      <c r="B92" s="2">
-        <v>150</v>
+      <c r="A92" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717881600000.0002</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C92" s="2">
         <v>8</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E92" s="2">
         <v>1</v>
@@ -5068,33 +5076,33 @@
       </c>
       <c r="L92" s="20">
         <f ca="1">L88-13/60/24</f>
-        <v>45446.763888888891</v>
+        <v>45451.763888888891</v>
       </c>
       <c r="M92" s="5">
         <f t="shared" ca="1" si="21"/>
-        <v>1717449600000.0002</v>
+        <v>1717881600000.0002</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R92" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R92" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240603182000, usuario: 150, produtos: [ { id: 8, descricao: "Enrolado de Presunto e Queijo", quantidade: 1, preco: 6.5 }, ], valorTotal: 6.5, data: 1717449600000, status: "Concluído" },</v>
+        <v>{ id: 1717881600000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Enrolado de Presunto e Queijo", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="11" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240602183300</v>
-      </c>
-      <c r="B93" s="11">
-        <v>177</v>
+      <c r="A93" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717795980000.0002</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="C93" s="11">
         <v>4</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E93" s="11">
         <v>1</v>
@@ -5107,38 +5115,38 @@
       <c r="I93" s="11"/>
       <c r="J93" s="13"/>
       <c r="K93" s="14">
-        <f t="shared" ref="K93:K132" si="29">E93*F93+I93*J93</f>
+        <f t="shared" ref="K93:K132" si="28">E93*F93+I93*J93</f>
         <v>3</v>
       </c>
       <c r="L93" s="19">
         <f ca="1">L88-1</f>
-        <v>45445.772916666669</v>
+        <v>45450.772916666669</v>
       </c>
       <c r="M93" s="17">
-        <f t="shared" ref="M93:M132" ca="1" si="30">(L93-$Q$5-0.875)*86400*1000</f>
-        <v>1717363980000.0002</v>
+        <f t="shared" ref="M93:M132" ca="1" si="29">(L93-$Q$5-0.875)*86400*1000</f>
+        <v>1717795980000.0002</v>
       </c>
       <c r="N93" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R93" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R93" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240602183300, usuario: 177, produtos: [ { id: 4, descricao: "Pão de Queijo", quantidade: 1, preco: 3 }, ], valorTotal: 3, data: 1717363980000, status: "Concluído" },</v>
+        <v>{ id: 1717795980000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pão de Queijo", quantidade: 1, preco: 3 }, ] },</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="11" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240602183230</v>
-      </c>
-      <c r="B94" s="11">
-        <v>144</v>
+      <c r="A94" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717795950000</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="C94" s="11">
         <v>1</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E94" s="11">
         <v>1</v>
@@ -5151,38 +5159,38 @@
       <c r="I94" s="11"/>
       <c r="J94" s="13"/>
       <c r="K94" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="L94" s="19">
         <f ca="1">L93-30/60/60/24</f>
-        <v>45445.772569444445</v>
+        <v>45450.772569444445</v>
       </c>
       <c r="M94" s="17">
-        <f t="shared" ca="1" si="30"/>
-        <v>1717363950000</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>1717795950000</v>
       </c>
       <c r="N94" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R94" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R94" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240602183230, usuario: 144, produtos: [ { id: 1, descricao: "Sanduíche Natual", quantidade: 1, preco: 10 }, ], valorTotal: 10, data: 1717363950000, status: "Concluído" },</v>
+        <v>{ id: 1717795950000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Sanduíche Natual", quantidade: 1, preco: 10 }, ] },</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95" s="11" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240602183200</v>
-      </c>
-      <c r="B95" s="11">
-        <v>156</v>
+      <c r="A95" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717795920000</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="C95" s="11">
         <v>5</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E95" s="11">
         <v>1</v>
@@ -5194,7 +5202,7 @@
         <v>13</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I95" s="11">
         <v>1</v>
@@ -5203,38 +5211,38 @@
         <v>6.5</v>
       </c>
       <c r="K95" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>11.5</v>
       </c>
       <c r="L95" s="19">
-        <f t="shared" ref="L95:L96" ca="1" si="31">L94-30/60/60/24</f>
-        <v>45445.772222222222</v>
+        <f t="shared" ref="L95:L96" ca="1" si="30">L94-30/60/60/24</f>
+        <v>45450.772222222222</v>
       </c>
       <c r="M95" s="17">
-        <f t="shared" ca="1" si="30"/>
-        <v>1717363920000</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>1717795920000</v>
       </c>
       <c r="N95" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R95" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R95" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240602183200, usuario: 156, produtos: [ { id: 5, descricao: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, { id: 13, descricao: "Sucos", quantidade: 1, preco: 6.5 }, ], valorTotal: 11.5, data: 1717363920000, status: "Concluído" },</v>
+        <v>{ id: 1717795920000, email: "aluno2@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, { id: 13, descricao: "Sucos", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240602183130</v>
-      </c>
-      <c r="B96" s="11">
-        <v>178</v>
+      <c r="A96" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717795889999.9998</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="C96" s="11">
         <v>2</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E96" s="11">
         <v>1</v>
@@ -5247,38 +5255,38 @@
       <c r="I96" s="11"/>
       <c r="J96" s="13"/>
       <c r="K96" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>6.5</v>
       </c>
       <c r="L96" s="19">
-        <f t="shared" ca="1" si="31"/>
-        <v>45445.771874999999</v>
+        <f t="shared" ca="1" si="30"/>
+        <v>45450.771874999999</v>
       </c>
       <c r="M96" s="17">
-        <f t="shared" ca="1" si="30"/>
-        <v>1717363889999.9998</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>1717795889999.9998</v>
       </c>
       <c r="N96" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R96" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R96" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240602183130, usuario: 178, produtos: [ { id: 2, descricao: "Coxinha", quantidade: 1, preco: 6.5 }, ], valorTotal: 6.5, data: 1717363890000, status: "Concluído" },</v>
+        <v>{ id: 1717795890000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Coxinha", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A97" s="11" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240602182000</v>
-      </c>
-      <c r="B97" s="11">
-        <v>106</v>
+      <c r="A97" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717795200000.0002</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="C97" s="11">
         <v>14</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E97" s="11">
         <v>1</v>
@@ -5291,38 +5299,38 @@
       <c r="I97" s="11"/>
       <c r="J97" s="13"/>
       <c r="K97" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>7.5</v>
       </c>
       <c r="L97" s="19">
         <f ca="1">L93-13/60/24</f>
-        <v>45445.763888888891</v>
+        <v>45450.763888888891</v>
       </c>
       <c r="M97" s="17">
-        <f t="shared" ca="1" si="30"/>
-        <v>1717363200000.0002</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>1717795200000.0002</v>
       </c>
       <c r="N97" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R97" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R97" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240602182000, usuario: 106, produtos: [ { id: 14, descricao: "Vitaminas", quantidade: 1, preco: 7.5 }, ], valorTotal: 7.5, data: 1717363200000, status: "Concluído" },</v>
+        <v>{ id: 1717795200000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Vitaminas", quantidade: 1, preco: 7.5 }, ] },</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240601183300</v>
-      </c>
-      <c r="B98" s="2">
-        <v>160</v>
+      <c r="A98" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717709580000.0002</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C98" s="2">
         <v>4</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E98" s="2">
         <v>1</v>
@@ -5335,38 +5343,38 @@
       <c r="I98" s="2"/>
       <c r="J98" s="6"/>
       <c r="K98" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="L98" s="20">
         <f ca="1">L93-1</f>
-        <v>45444.772916666669</v>
+        <v>45449.772916666669</v>
       </c>
       <c r="M98" s="5">
-        <f t="shared" ca="1" si="30"/>
-        <v>1717277580000.0002</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>1717709580000.0002</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R98" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R98" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240601183300, usuario: 160, produtos: [ { id: 4, descricao: "Pão de Queijo", quantidade: 1, preco: 3 }, ], valorTotal: 3, data: 1717277580000, status: "Concluído" },</v>
+        <v>{ id: 1717709580000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pão de Queijo", quantidade: 1, preco: 3 }, ] },</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240601183230</v>
-      </c>
-      <c r="B99" s="2">
-        <v>191</v>
+      <c r="A99" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717709550000</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C99" s="2">
         <v>8</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E99" s="2">
         <v>1</v>
@@ -5378,7 +5386,7 @@
         <v>13</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I99" s="2">
         <v>1</v>
@@ -5387,38 +5395,38 @@
         <v>6.5</v>
       </c>
       <c r="K99" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>13</v>
       </c>
       <c r="L99" s="20">
         <f ca="1">L98-30/60/60/24</f>
-        <v>45444.772569444445</v>
+        <v>45449.772569444445</v>
       </c>
       <c r="M99" s="5">
-        <f t="shared" ca="1" si="30"/>
-        <v>1717277550000</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>1717709550000</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R99" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R99" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240601183230, usuario: 191, produtos: [ { id: 8, descricao: "Enrolado de Presunto e Queijo", quantidade: 1, preco: 6.5 }, { id: 13, descricao: "Sucos", quantidade: 1, preco: 6.5 }, ], valorTotal: 13, data: 1717277550000, status: "Concluído" },</v>
+        <v>{ id: 1717709550000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Enrolado de Presunto e Queijo", quantidade: 1, preco: 6.5 }, { id: 13, descricao: "Sucos", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240601183200</v>
-      </c>
-      <c r="B100" s="2">
-        <v>131</v>
+      <c r="A100" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717709520000</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C100" s="2">
         <v>5</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E100" s="2">
         <v>1</v>
@@ -5431,38 +5439,38 @@
       <c r="I100" s="2"/>
       <c r="J100" s="6"/>
       <c r="K100" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="L100" s="20">
-        <f t="shared" ref="L100:L101" ca="1" si="32">L99-30/60/60/24</f>
-        <v>45444.772222222222</v>
+        <f t="shared" ref="L100:L101" ca="1" si="31">L99-30/60/60/24</f>
+        <v>45449.772222222222</v>
       </c>
       <c r="M100" s="5">
-        <f t="shared" ca="1" si="30"/>
-        <v>1717277520000</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>1717709520000</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R100" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R100" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240601183200, usuario: 131, produtos: [ { id: 5, descricao: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, ], valorTotal: 5, data: 1717277520000, status: "Concluído" },</v>
+        <v>{ id: 1717709520000, email: "aluno2@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, ] },</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240601183130</v>
-      </c>
-      <c r="B101" s="2">
-        <v>128</v>
+      <c r="A101" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717709489999.9998</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C101" s="2">
         <v>7</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E101" s="2">
         <v>1</v>
@@ -5474,7 +5482,7 @@
         <v>12</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I101" s="2">
         <v>1</v>
@@ -5483,38 +5491,38 @@
         <v>6</v>
       </c>
       <c r="K101" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>12.5</v>
       </c>
       <c r="L101" s="20">
-        <f t="shared" ca="1" si="32"/>
-        <v>45444.771874999999</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>45449.771874999999</v>
       </c>
       <c r="M101" s="5">
-        <f t="shared" ca="1" si="30"/>
-        <v>1717277489999.9998</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>1717709489999.9998</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R101" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R101" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240601183130, usuario: 128, produtos: [ { id: 7, descricao: "Hamburgão", quantidade: 1, preco: 6.5 }, { id: 12, descricao: "Refrigerante", quantidade: 1, preco: 6 }, ], valorTotal: 12.5, data: 1717277490000, status: "Concluído" },</v>
+        <v>{ id: 1717709490000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Hamburgão", quantidade: 1, preco: 6.5 }, { id: 12, descricao: "Refrigerante", quantidade: 1, preco: 6 }, ] },</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240601182000</v>
-      </c>
-      <c r="B102" s="2">
-        <v>150</v>
+      <c r="A102" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717708800000.0002</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C102" s="2">
         <v>8</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E102" s="2">
         <v>1</v>
@@ -5527,38 +5535,38 @@
       <c r="I102" s="2"/>
       <c r="J102" s="6"/>
       <c r="K102" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>6.5</v>
       </c>
       <c r="L102" s="20">
         <f ca="1">L98-13/60/24</f>
-        <v>45444.763888888891</v>
+        <v>45449.763888888891</v>
       </c>
       <c r="M102" s="5">
-        <f t="shared" ca="1" si="30"/>
-        <v>1717276800000.0002</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>1717708800000.0002</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R102" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R102" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240601182000, usuario: 150, produtos: [ { id: 8, descricao: "Enrolado de Presunto e Queijo", quantidade: 1, preco: 6.5 }, ], valorTotal: 6.5, data: 1717276800000, status: "Concluído" },</v>
+        <v>{ id: 1717708800000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Enrolado de Presunto e Queijo", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A103" s="11" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240531183300</v>
-      </c>
-      <c r="B103" s="11">
-        <v>155</v>
+      <c r="A103" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717623180000.0002</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="C103" s="11">
         <v>5</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E103" s="11">
         <v>1</v>
@@ -5571,38 +5579,38 @@
       <c r="I103" s="11"/>
       <c r="J103" s="13"/>
       <c r="K103" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="L103" s="19">
         <f ca="1">L98-1</f>
-        <v>45443.772916666669</v>
+        <v>45448.772916666669</v>
       </c>
       <c r="M103" s="17">
-        <f t="shared" ca="1" si="30"/>
-        <v>1717191180000.0002</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>1717623180000.0002</v>
       </c>
       <c r="N103" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R103" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R103" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240531183300, usuario: 155, produtos: [ { id: 5, descricao: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, ], valorTotal: 5, data: 1717191180000, status: "Concluído" },</v>
+        <v>{ id: 1717623180000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, ] },</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A104" s="11" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240531183230</v>
-      </c>
-      <c r="B104" s="11">
-        <v>110</v>
+      <c r="A104" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717623150000</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="C104" s="11">
         <v>8</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E104" s="11">
         <v>1</v>
@@ -5614,7 +5622,7 @@
         <v>15</v>
       </c>
       <c r="H104" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I104" s="11">
         <v>1</v>
@@ -5623,38 +5631,38 @@
         <v>4.5</v>
       </c>
       <c r="K104" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>11</v>
       </c>
       <c r="L104" s="19">
         <f ca="1">L103-30/60/60/24</f>
-        <v>45443.772569444445</v>
+        <v>45448.772569444445</v>
       </c>
       <c r="M104" s="17">
-        <f t="shared" ca="1" si="30"/>
-        <v>1717191150000</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>1717623150000</v>
       </c>
       <c r="N104" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R104" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R104" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240531183230, usuario: 110, produtos: [ { id: 8, descricao: "Enrolado de Presunto e Queijo", quantidade: 1, preco: 6.5 }, { id: 15, descricao: "Água", quantidade: 1, preco: 4.5 }, ], valorTotal: 11, data: 1717191150000, status: "Concluído" },</v>
+        <v>{ id: 1717623150000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Enrolado de Presunto e Queijo", quantidade: 1, preco: 6.5 }, { id: 15, descricao: "Água", quantidade: 1, preco: 4.5 }, ] },</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A105" s="11" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240531183200</v>
-      </c>
-      <c r="B105" s="11">
-        <v>188</v>
+      <c r="A105" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717623120000</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="C105" s="11">
         <v>9</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E105" s="11">
         <v>1</v>
@@ -5667,38 +5675,38 @@
       <c r="I105" s="11"/>
       <c r="J105" s="13"/>
       <c r="K105" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>6.5</v>
       </c>
       <c r="L105" s="19">
-        <f t="shared" ref="L105:L106" ca="1" si="33">L104-30/60/60/24</f>
-        <v>45443.772222222222</v>
+        <f t="shared" ref="L105:L106" ca="1" si="32">L104-30/60/60/24</f>
+        <v>45448.772222222222</v>
       </c>
       <c r="M105" s="17">
-        <f t="shared" ca="1" si="30"/>
-        <v>1717191120000</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>1717623120000</v>
       </c>
       <c r="N105" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R105" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R105" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240531183200, usuario: 188, produtos: [ { id: 9, descricao: "Enrolado de Presunto e Queijo", quantidade: 1, preco: 6.5 }, ], valorTotal: 6.5, data: 1717191120000, status: "Concluído" },</v>
+        <v>{ id: 1717623120000, email: "aluno2@gmail.com", status: "finalizado" , carrinho: [ { nome: "Enrolado de Presunto e Queijo", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A106" s="11" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240531183130</v>
-      </c>
-      <c r="B106" s="11">
-        <v>108</v>
+      <c r="A106" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717623089999.9998</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="C106" s="11">
         <v>11</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E106" s="11">
         <v>1</v>
@@ -5710,7 +5718,7 @@
         <v>19</v>
       </c>
       <c r="H106" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I106" s="11">
         <v>1</v>
@@ -5719,38 +5727,38 @@
         <v>2.5</v>
       </c>
       <c r="K106" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>17.5</v>
       </c>
       <c r="L106" s="19">
-        <f t="shared" ca="1" si="33"/>
-        <v>45443.771874999999</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>45448.771874999999</v>
       </c>
       <c r="M106" s="17">
-        <f t="shared" ca="1" si="30"/>
-        <v>1717191089999.9998</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>1717623089999.9998</v>
       </c>
       <c r="N106" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R106" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R106" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240531183130, usuario: 108, produtos: [ { id: 11, descricao: "Batata Frita", quantidade: 1, preco: 15 }, { id: 19, descricao: "Chicletes", quantidade: 1, preco: 2.5 }, ], valorTotal: 17.5, data: 1717191090000, status: "Concluído" },</v>
+        <v>{ id: 1717623090000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Batata Frita", quantidade: 1, preco: 15 }, { id: 19, descricao: "Chicletes", quantidade: 1, preco: 2.5 }, ] },</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A107" s="11" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240531182000</v>
-      </c>
-      <c r="B107" s="11">
-        <v>135</v>
+      <c r="A107" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717622400000.0002</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="C107" s="11">
         <v>15</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E107" s="11">
         <v>1</v>
@@ -5762,7 +5770,7 @@
         <v>17</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I107" s="11">
         <v>1</v>
@@ -5771,38 +5779,38 @@
         <v>3</v>
       </c>
       <c r="K107" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>7.5</v>
       </c>
       <c r="L107" s="19">
         <f ca="1">L103-13/60/24</f>
-        <v>45443.763888888891</v>
+        <v>45448.763888888891</v>
       </c>
       <c r="M107" s="17">
-        <f t="shared" ca="1" si="30"/>
-        <v>1717190400000.0002</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>1717622400000.0002</v>
       </c>
       <c r="N107" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R107" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R107" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240531182000, usuario: 135, produtos: [ { id: 15, descricao: "Água", quantidade: 1, preco: 4.5 }, { id: 17, descricao: "Bombom", quantidade: 1, preco: 3 }, ], valorTotal: 7.5, data: 1717190400000, status: "Concluído" },</v>
+        <v>{ id: 1717622400000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Água", quantidade: 1, preco: 4.5 }, { id: 17, descricao: "Bombom", quantidade: 1, preco: 3 }, ] },</v>
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A108" s="11" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240528183300</v>
-      </c>
-      <c r="B108" s="11">
-        <v>177</v>
+      <c r="A108" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717363980000.0002</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="C108" s="11">
         <v>4</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E108" s="11">
         <v>1</v>
@@ -5815,38 +5823,38 @@
       <c r="I108" s="11"/>
       <c r="J108" s="13"/>
       <c r="K108" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="L108" s="19">
         <f ca="1">L103-3</f>
-        <v>45440.772916666669</v>
+        <v>45445.772916666669</v>
       </c>
       <c r="M108" s="17">
-        <f t="shared" ca="1" si="30"/>
-        <v>1716931980000.0002</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>1717363980000.0002</v>
       </c>
       <c r="N108" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R108" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R108" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240528183300, usuario: 177, produtos: [ { id: 4, descricao: "Pão de Queijo", quantidade: 1, preco: 3 }, ], valorTotal: 3, data: 1716931980000, status: "Concluído" },</v>
+        <v>{ id: 1717363980000, email: "aluno2@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pão de Queijo", quantidade: 1, preco: 3 }, ] },</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A109" s="11" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240528183230</v>
-      </c>
-      <c r="B109" s="11">
-        <v>144</v>
+      <c r="A109" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717363950000</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="C109" s="11">
         <v>1</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E109" s="11">
         <v>1</v>
@@ -5859,38 +5867,38 @@
       <c r="I109" s="11"/>
       <c r="J109" s="13"/>
       <c r="K109" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="L109" s="19">
         <f ca="1">L108-30/60/60/24</f>
-        <v>45440.772569444445</v>
+        <v>45445.772569444445</v>
       </c>
       <c r="M109" s="17">
-        <f t="shared" ca="1" si="30"/>
-        <v>1716931950000</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>1717363950000</v>
       </c>
       <c r="N109" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R109" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R109" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240528183230, usuario: 144, produtos: [ { id: 1, descricao: "Sanduíche Natual", quantidade: 1, preco: 10 }, ], valorTotal: 10, data: 1716931950000, status: "Concluído" },</v>
+        <v>{ id: 1717363950000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Sanduíche Natual", quantidade: 1, preco: 10 }, ] },</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A110" s="11" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240528183200</v>
-      </c>
-      <c r="B110" s="11">
-        <v>156</v>
+      <c r="A110" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717363920000</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="C110" s="11">
         <v>7</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E110" s="11">
         <v>1</v>
@@ -5902,7 +5910,7 @@
         <v>13</v>
       </c>
       <c r="H110" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I110" s="11">
         <v>1</v>
@@ -5911,38 +5919,38 @@
         <v>6.5</v>
       </c>
       <c r="K110" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>13</v>
       </c>
       <c r="L110" s="19">
-        <f t="shared" ref="L110:L111" ca="1" si="34">L109-30/60/60/24</f>
-        <v>45440.772222222222</v>
+        <f t="shared" ref="L110:L111" ca="1" si="33">L109-30/60/60/24</f>
+        <v>45445.772222222222</v>
       </c>
       <c r="M110" s="17">
-        <f t="shared" ca="1" si="30"/>
-        <v>1716931920000</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>1717363920000</v>
       </c>
       <c r="N110" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R110" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R110" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240528183200, usuario: 156, produtos: [ { id: 7, descricao: "Hamburgão", quantidade: 1, preco: 6.5 }, { id: 13, descricao: "Sucos", quantidade: 1, preco: 6.5 }, ], valorTotal: 13, data: 1716931920000, status: "Concluído" },</v>
+        <v>{ id: 1717363920000, email: "aluno2@gmail.com", status: "finalizado" , carrinho: [ { nome: "Hamburgão", quantidade: 1, preco: 6.5 }, { id: 13, descricao: "Sucos", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A111" s="11" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240528183130</v>
-      </c>
-      <c r="B111" s="11">
-        <v>178</v>
+      <c r="A111" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717363889999.9998</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="C111" s="11">
         <v>2</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E111" s="11">
         <v>1</v>
@@ -5955,38 +5963,38 @@
       <c r="I111" s="11"/>
       <c r="J111" s="13"/>
       <c r="K111" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>6.5</v>
       </c>
       <c r="L111" s="19">
-        <f t="shared" ca="1" si="34"/>
-        <v>45440.771874999999</v>
+        <f t="shared" ca="1" si="33"/>
+        <v>45445.771874999999</v>
       </c>
       <c r="M111" s="17">
-        <f t="shared" ca="1" si="30"/>
-        <v>1716931889999.9998</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>1717363889999.9998</v>
       </c>
       <c r="N111" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R111" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R111" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240528183130, usuario: 178, produtos: [ { id: 2, descricao: "Coxinha", quantidade: 1, preco: 6.5 }, ], valorTotal: 6.5, data: 1716931890000, status: "Concluído" },</v>
+        <v>{ id: 1717363890000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Coxinha", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A112" s="11" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240528182000</v>
-      </c>
-      <c r="B112" s="11">
-        <v>106</v>
+      <c r="A112" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717363200000.0002</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="C112" s="11">
         <v>15</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E112" s="11">
         <v>1</v>
@@ -5999,38 +6007,38 @@
       <c r="I112" s="11"/>
       <c r="J112" s="13"/>
       <c r="K112" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>4.5</v>
       </c>
       <c r="L112" s="19">
         <f ca="1">L108-13/60/24</f>
-        <v>45440.763888888891</v>
+        <v>45445.763888888891</v>
       </c>
       <c r="M112" s="17">
-        <f t="shared" ca="1" si="30"/>
-        <v>1716931200000.0002</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>1717363200000.0002</v>
       </c>
       <c r="N112" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R112" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R112" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240528182000, usuario: 106, produtos: [ { id: 15, descricao: "Água", quantidade: 1, preco: 4.5 }, ], valorTotal: 4.5, data: 1716931200000, status: "Concluído" },</v>
+        <v>{ id: 1717363200000, email: "aluno2@gmail.com", status: "finalizado" , carrinho: [ { nome: "Água", quantidade: 1, preco: 4.5 }, ] },</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240527183300</v>
-      </c>
-      <c r="B113" s="2">
-        <v>160</v>
+      <c r="A113" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717277580000.0002</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C113" s="2">
         <v>4</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E113" s="2">
         <v>1</v>
@@ -6043,38 +6051,38 @@
       <c r="I113" s="2"/>
       <c r="J113" s="6"/>
       <c r="K113" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="L113" s="20">
         <f ca="1">L108-1</f>
-        <v>45439.772916666669</v>
+        <v>45444.772916666669</v>
       </c>
       <c r="M113" s="5">
-        <f t="shared" ca="1" si="30"/>
-        <v>1716845580000.0002</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>1717277580000.0002</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R113" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R113" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240527183300, usuario: 160, produtos: [ { id: 4, descricao: "Pão de Queijo", quantidade: 1, preco: 3 }, ], valorTotal: 3, data: 1716845580000, status: "Concluído" },</v>
+        <v>{ id: 1717277580000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pão de Queijo", quantidade: 1, preco: 3 }, ] },</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240527183230</v>
-      </c>
-      <c r="B114" s="2">
-        <v>191</v>
+      <c r="A114" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717277550000</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C114" s="2">
         <v>6</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E114" s="2">
         <v>1</v>
@@ -6086,7 +6094,7 @@
         <v>13</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I114" s="2">
         <v>1</v>
@@ -6095,38 +6103,38 @@
         <v>6.5</v>
       </c>
       <c r="K114" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>13</v>
       </c>
       <c r="L114" s="20">
         <f ca="1">L113-30/60/60/24</f>
-        <v>45439.772569444445</v>
+        <v>45444.772569444445</v>
       </c>
       <c r="M114" s="5">
-        <f t="shared" ca="1" si="30"/>
-        <v>1716845550000</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>1717277550000</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R114" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R114" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240527183230, usuario: 191, produtos: [ { id: 6, descricao: "Pastel Assado", quantidade: 1, preco: 6.5 }, { id: 13, descricao: "Sucos", quantidade: 1, preco: 6.5 }, ], valorTotal: 13, data: 1716845550000, status: "Concluído" },</v>
+        <v>{ id: 1717277550000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pastel Assado", quantidade: 1, preco: 6.5 }, { id: 13, descricao: "Sucos", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240527183200</v>
-      </c>
-      <c r="B115" s="2">
-        <v>131</v>
+      <c r="A115" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717277520000</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C115" s="2">
         <v>5</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E115" s="2">
         <v>1</v>
@@ -6139,38 +6147,38 @@
       <c r="I115" s="2"/>
       <c r="J115" s="6"/>
       <c r="K115" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="L115" s="20">
-        <f t="shared" ref="L115:L116" ca="1" si="35">L114-30/60/60/24</f>
-        <v>45439.772222222222</v>
+        <f t="shared" ref="L115:L116" ca="1" si="34">L114-30/60/60/24</f>
+        <v>45444.772222222222</v>
       </c>
       <c r="M115" s="5">
-        <f t="shared" ca="1" si="30"/>
-        <v>1716845520000</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>1717277520000</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R115" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R115" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240527183200, usuario: 131, produtos: [ { id: 5, descricao: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, ], valorTotal: 5, data: 1716845520000, status: "Concluído" },</v>
+        <v>{ id: 1717277520000, email: "aluno2@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, ] },</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240527183130</v>
-      </c>
-      <c r="B116" s="2">
-        <v>128</v>
+      <c r="A116" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717277489999.9998</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C116" s="2">
         <v>3</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E116" s="2">
         <v>1</v>
@@ -6182,7 +6190,7 @@
         <v>15</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I116" s="2">
         <v>1</v>
@@ -6191,38 +6199,38 @@
         <v>4.5</v>
       </c>
       <c r="K116" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>11</v>
       </c>
       <c r="L116" s="20">
-        <f t="shared" ca="1" si="35"/>
-        <v>45439.771874999999</v>
+        <f t="shared" ca="1" si="34"/>
+        <v>45444.771874999999</v>
       </c>
       <c r="M116" s="5">
-        <f t="shared" ca="1" si="30"/>
-        <v>1716845489999.9998</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>1717277489999.9998</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R116" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R116" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240527183130, usuario: 128, produtos: [ { id: 3, descricao: "Empada", quantidade: 1, preco: 6.5 }, { id: 15, descricao: "Água", quantidade: 1, preco: 4.5 }, ], valorTotal: 11, data: 1716845490000, status: "Concluído" },</v>
+        <v>{ id: 1717277490000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Empada", quantidade: 1, preco: 6.5 }, { id: 15, descricao: "Água", quantidade: 1, preco: 4.5 }, ] },</v>
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240527182000</v>
-      </c>
-      <c r="B117" s="2">
-        <v>150</v>
+      <c r="A117" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717276800000.0002</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C117" s="2">
         <v>8</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E117" s="2">
         <v>1</v>
@@ -6235,38 +6243,38 @@
       <c r="I117" s="2"/>
       <c r="J117" s="6"/>
       <c r="K117" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>6.5</v>
       </c>
       <c r="L117" s="20">
         <f ca="1">L113-13/60/24</f>
-        <v>45439.763888888891</v>
+        <v>45444.763888888891</v>
       </c>
       <c r="M117" s="5">
-        <f t="shared" ca="1" si="30"/>
-        <v>1716844800000.0002</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>1717276800000.0002</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R117" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R117" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240527182000, usuario: 150, produtos: [ { id: 8, descricao: "Enrolado de Presunto e Queijo", quantidade: 1, preco: 6.5 }, ], valorTotal: 6.5, data: 1716844800000, status: "Concluído" },</v>
+        <v>{ id: 1717276800000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Enrolado de Presunto e Queijo", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A118" s="11" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240526183300</v>
-      </c>
-      <c r="B118" s="11">
-        <v>177</v>
+      <c r="A118" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717191180000.0002</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="C118" s="11">
         <v>4</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E118" s="11">
         <v>1</v>
@@ -6279,38 +6287,38 @@
       <c r="I118" s="11"/>
       <c r="J118" s="13"/>
       <c r="K118" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="L118" s="19">
         <f ca="1">L113-1</f>
-        <v>45438.772916666669</v>
+        <v>45443.772916666669</v>
       </c>
       <c r="M118" s="17">
-        <f t="shared" ca="1" si="30"/>
-        <v>1716759180000.0002</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>1717191180000.0002</v>
       </c>
       <c r="N118" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R118" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R118" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240526183300, usuario: 177, produtos: [ { id: 4, descricao: "Pão de Queijo", quantidade: 1, preco: 3 }, ], valorTotal: 3, data: 1716759180000, status: "Concluído" },</v>
+        <v>{ id: 1717191180000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pão de Queijo", quantidade: 1, preco: 3 }, ] },</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A119" s="11" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240526183230</v>
-      </c>
-      <c r="B119" s="11">
-        <v>144</v>
+      <c r="A119" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717191150000</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="C119" s="11">
         <v>1</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E119" s="11">
         <v>1</v>
@@ -6323,38 +6331,38 @@
       <c r="I119" s="11"/>
       <c r="J119" s="13"/>
       <c r="K119" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="L119" s="19">
         <f ca="1">L118-30/60/60/24</f>
-        <v>45438.772569444445</v>
+        <v>45443.772569444445</v>
       </c>
       <c r="M119" s="17">
-        <f t="shared" ca="1" si="30"/>
-        <v>1716759150000</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>1717191150000</v>
       </c>
       <c r="N119" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R119" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R119" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240526183230, usuario: 144, produtos: [ { id: 1, descricao: "Sanduíche Natual", quantidade: 1, preco: 10 }, ], valorTotal: 10, data: 1716759150000, status: "Concluído" },</v>
+        <v>{ id: 1717191150000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Sanduíche Natual", quantidade: 1, preco: 10 }, ] },</v>
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A120" s="11" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240526183200</v>
-      </c>
-      <c r="B120" s="11">
-        <v>156</v>
+      <c r="A120" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717191120000</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="C120" s="11">
         <v>5</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E120" s="11">
         <v>1</v>
@@ -6366,7 +6374,7 @@
         <v>13</v>
       </c>
       <c r="H120" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I120" s="11">
         <v>1</v>
@@ -6375,38 +6383,38 @@
         <v>6.5</v>
       </c>
       <c r="K120" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>11.5</v>
       </c>
       <c r="L120" s="19">
-        <f t="shared" ref="L120:L121" ca="1" si="36">L119-30/60/60/24</f>
-        <v>45438.772222222222</v>
+        <f t="shared" ref="L120:L121" ca="1" si="35">L119-30/60/60/24</f>
+        <v>45443.772222222222</v>
       </c>
       <c r="M120" s="17">
-        <f t="shared" ca="1" si="30"/>
-        <v>1716759120000</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>1717191120000</v>
       </c>
       <c r="N120" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R120" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R120" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240526183200, usuario: 156, produtos: [ { id: 5, descricao: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, { id: 13, descricao: "Sucos", quantidade: 1, preco: 6.5 }, ], valorTotal: 11.5, data: 1716759120000, status: "Concluído" },</v>
+        <v>{ id: 1717191120000, email: "aluno2@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, { id: 13, descricao: "Sucos", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A121" s="11" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240526183130</v>
-      </c>
-      <c r="B121" s="11">
-        <v>178</v>
+      <c r="A121" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717191089999.9998</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="C121" s="11">
         <v>2</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E121" s="11">
         <v>1</v>
@@ -6419,38 +6427,38 @@
       <c r="I121" s="11"/>
       <c r="J121" s="13"/>
       <c r="K121" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>6.5</v>
       </c>
       <c r="L121" s="19">
-        <f t="shared" ca="1" si="36"/>
-        <v>45438.771874999999</v>
+        <f t="shared" ca="1" si="35"/>
+        <v>45443.771874999999</v>
       </c>
       <c r="M121" s="17">
-        <f t="shared" ca="1" si="30"/>
-        <v>1716759089999.9998</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>1717191089999.9998</v>
       </c>
       <c r="N121" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R121" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R121" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240526183130, usuario: 178, produtos: [ { id: 2, descricao: "Coxinha", quantidade: 1, preco: 6.5 }, ], valorTotal: 6.5, data: 1716759090000, status: "Concluído" },</v>
+        <v>{ id: 1717191090000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Coxinha", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A122" s="11" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240526182000</v>
-      </c>
-      <c r="B122" s="11">
-        <v>106</v>
+      <c r="A122" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717190400000.0002</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="C122" s="11">
         <v>14</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E122" s="11">
         <v>1</v>
@@ -6463,38 +6471,38 @@
       <c r="I122" s="11"/>
       <c r="J122" s="13"/>
       <c r="K122" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>7.5</v>
       </c>
       <c r="L122" s="19">
         <f ca="1">L118-13/60/24</f>
-        <v>45438.763888888891</v>
+        <v>45443.763888888891</v>
       </c>
       <c r="M122" s="17">
-        <f t="shared" ca="1" si="30"/>
-        <v>1716758400000.0002</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>1717190400000.0002</v>
       </c>
       <c r="N122" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R122" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R122" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240526182000, usuario: 106, produtos: [ { id: 14, descricao: "Vitaminas", quantidade: 1, preco: 7.5 }, ], valorTotal: 7.5, data: 1716758400000, status: "Concluído" },</v>
+        <v>{ id: 1717190400000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Vitaminas", quantidade: 1, preco: 7.5 }, ] },</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240525183300</v>
-      </c>
-      <c r="B123" s="2">
-        <v>160</v>
+      <c r="A123" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717104780000.0002</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C123" s="2">
         <v>4</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E123" s="2">
         <v>1</v>
@@ -6507,38 +6515,38 @@
       <c r="I123" s="2"/>
       <c r="J123" s="6"/>
       <c r="K123" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="L123" s="20">
         <f ca="1">L118-1</f>
-        <v>45437.772916666669</v>
+        <v>45442.772916666669</v>
       </c>
       <c r="M123" s="5">
-        <f t="shared" ca="1" si="30"/>
-        <v>1716672780000.0002</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>1717104780000.0002</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R123" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R123" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240525183300, usuario: 160, produtos: [ { id: 4, descricao: "Pão de Queijo", quantidade: 1, preco: 3 }, ], valorTotal: 3, data: 1716672780000, status: "Concluído" },</v>
+        <v>{ id: 1717104780000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pão de Queijo", quantidade: 1, preco: 3 }, ] },</v>
       </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240525183230</v>
-      </c>
-      <c r="B124" s="2">
-        <v>191</v>
+      <c r="A124" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717104750000</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C124" s="2">
         <v>8</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E124" s="2">
         <v>1</v>
@@ -6550,7 +6558,7 @@
         <v>13</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I124" s="2">
         <v>1</v>
@@ -6559,38 +6567,38 @@
         <v>6.5</v>
       </c>
       <c r="K124" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>13</v>
       </c>
       <c r="L124" s="20">
         <f ca="1">L123-30/60/60/24</f>
-        <v>45437.772569444445</v>
+        <v>45442.772569444445</v>
       </c>
       <c r="M124" s="5">
-        <f t="shared" ca="1" si="30"/>
-        <v>1716672750000</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>1717104750000</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R124" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R124" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240525183230, usuario: 191, produtos: [ { id: 8, descricao: "Enrolado de Presunto e Queijo", quantidade: 1, preco: 6.5 }, { id: 13, descricao: "Sucos", quantidade: 1, preco: 6.5 }, ], valorTotal: 13, data: 1716672750000, status: "Concluído" },</v>
+        <v>{ id: 1717104750000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Enrolado de Presunto e Queijo", quantidade: 1, preco: 6.5 }, { id: 13, descricao: "Sucos", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240525183200</v>
-      </c>
-      <c r="B125" s="2">
-        <v>131</v>
+      <c r="A125" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717104720000</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C125" s="2">
         <v>5</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E125" s="2">
         <v>1</v>
@@ -6603,38 +6611,38 @@
       <c r="I125" s="2"/>
       <c r="J125" s="6"/>
       <c r="K125" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="L125" s="20">
-        <f t="shared" ref="L125:L126" ca="1" si="37">L124-30/60/60/24</f>
-        <v>45437.772222222222</v>
+        <f t="shared" ref="L125:L126" ca="1" si="36">L124-30/60/60/24</f>
+        <v>45442.772222222222</v>
       </c>
       <c r="M125" s="5">
-        <f t="shared" ca="1" si="30"/>
-        <v>1716672720000</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>1717104720000</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R125" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R125" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240525183200, usuario: 131, produtos: [ { id: 5, descricao: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, ], valorTotal: 5, data: 1716672720000, status: "Concluído" },</v>
+        <v>{ id: 1717104720000, email: "aluno2@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, ] },</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240525183130</v>
-      </c>
-      <c r="B126" s="2">
-        <v>128</v>
+      <c r="A126" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717104689999.9998</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C126" s="2">
         <v>7</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E126" s="2">
         <v>1</v>
@@ -6646,7 +6654,7 @@
         <v>12</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I126" s="2">
         <v>1</v>
@@ -6655,38 +6663,38 @@
         <v>6</v>
       </c>
       <c r="K126" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>12.5</v>
       </c>
       <c r="L126" s="20">
-        <f t="shared" ca="1" si="37"/>
-        <v>45437.771874999999</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>45442.771874999999</v>
       </c>
       <c r="M126" s="5">
-        <f t="shared" ca="1" si="30"/>
-        <v>1716672689999.9998</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>1717104689999.9998</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R126" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R126" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240525183130, usuario: 128, produtos: [ { id: 7, descricao: "Hamburgão", quantidade: 1, preco: 6.5 }, { id: 12, descricao: "Refrigerante", quantidade: 1, preco: 6 }, ], valorTotal: 12.5, data: 1716672690000, status: "Concluído" },</v>
+        <v>{ id: 1717104690000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Hamburgão", quantidade: 1, preco: 6.5 }, { id: 12, descricao: "Refrigerante", quantidade: 1, preco: 6 }, ] },</v>
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240525182000</v>
-      </c>
-      <c r="B127" s="2">
-        <v>150</v>
+      <c r="A127" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717104000000.0002</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C127" s="2">
         <v>8</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E127" s="2">
         <v>1</v>
@@ -6699,38 +6707,38 @@
       <c r="I127" s="2"/>
       <c r="J127" s="6"/>
       <c r="K127" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>6.5</v>
       </c>
       <c r="L127" s="20">
         <f ca="1">L123-13/60/24</f>
-        <v>45437.763888888891</v>
+        <v>45442.763888888891</v>
       </c>
       <c r="M127" s="5">
-        <f t="shared" ca="1" si="30"/>
-        <v>1716672000000.0002</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>1717104000000.0002</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R127" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R127" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240525182000, usuario: 150, produtos: [ { id: 8, descricao: "Enrolado de Presunto e Queijo", quantidade: 1, preco: 6.5 }, ], valorTotal: 6.5, data: 1716672000000, status: "Concluído" },</v>
+        <v>{ id: 1717104000000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Enrolado de Presunto e Queijo", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A128" s="11" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240524183300</v>
-      </c>
-      <c r="B128" s="11">
-        <v>155</v>
+      <c r="A128" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717018380000.0002</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="C128" s="11">
         <v>5</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E128" s="11">
         <v>1</v>
@@ -6743,38 +6751,38 @@
       <c r="I128" s="11"/>
       <c r="J128" s="13"/>
       <c r="K128" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="L128" s="19">
         <f ca="1">L123-1</f>
-        <v>45436.772916666669</v>
+        <v>45441.772916666669</v>
       </c>
       <c r="M128" s="17">
-        <f t="shared" ca="1" si="30"/>
-        <v>1716586380000.0002</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>1717018380000.0002</v>
       </c>
       <c r="N128" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R128" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R128" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240524183300, usuario: 155, produtos: [ { id: 5, descricao: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, ], valorTotal: 5, data: 1716586380000, status: "Concluído" },</v>
+        <v>{ id: 1717018380000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, ] },</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A129" s="11" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240524183230</v>
-      </c>
-      <c r="B129" s="11">
-        <v>110</v>
+      <c r="A129" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717018350000</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="C129" s="11">
         <v>8</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E129" s="11">
         <v>1</v>
@@ -6786,7 +6794,7 @@
         <v>15</v>
       </c>
       <c r="H129" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I129" s="11">
         <v>1</v>
@@ -6795,38 +6803,38 @@
         <v>4.5</v>
       </c>
       <c r="K129" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>11</v>
       </c>
       <c r="L129" s="19">
         <f ca="1">L128-30/60/60/24</f>
-        <v>45436.772569444445</v>
+        <v>45441.772569444445</v>
       </c>
       <c r="M129" s="17">
-        <f t="shared" ca="1" si="30"/>
-        <v>1716586350000</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>1717018350000</v>
       </c>
       <c r="N129" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R129" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R129" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240524183230, usuario: 110, produtos: [ { id: 8, descricao: "Enrolado de Presunto e Queijo", quantidade: 1, preco: 6.5 }, { id: 15, descricao: "Água", quantidade: 1, preco: 4.5 }, ], valorTotal: 11, data: 1716586350000, status: "Concluído" },</v>
+        <v>{ id: 1717018350000, email: "aluno1@gmail.com", status: "finalizado" , carrinho: [ { nome: "Enrolado de Presunto e Queijo", quantidade: 1, preco: 6.5 }, { id: 15, descricao: "Água", quantidade: 1, preco: 4.5 }, ] },</v>
       </c>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A130" s="11" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240524183200</v>
-      </c>
-      <c r="B130" s="11">
-        <v>188</v>
+      <c r="A130" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717018320000</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="C130" s="11">
         <v>9</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E130" s="11">
         <v>1</v>
@@ -6839,38 +6847,38 @@
       <c r="I130" s="11"/>
       <c r="J130" s="13"/>
       <c r="K130" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>6.5</v>
       </c>
       <c r="L130" s="19">
-        <f t="shared" ref="L130:L131" ca="1" si="38">L129-30/60/60/24</f>
-        <v>45436.772222222222</v>
+        <f t="shared" ref="L130:L131" ca="1" si="37">L129-30/60/60/24</f>
+        <v>45441.772222222222</v>
       </c>
       <c r="M130" s="17">
-        <f t="shared" ca="1" si="30"/>
-        <v>1716586320000</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>1717018320000</v>
       </c>
       <c r="N130" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R130" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R130" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240524183200, usuario: 188, produtos: [ { id: 9, descricao: "Enrolado de Presunto e Queijo", quantidade: 1, preco: 6.5 }, ], valorTotal: 6.5, data: 1716586320000, status: "Concluído" },</v>
+        <v>{ id: 1717018320000, email: "aluno2@gmail.com", status: "finalizado" , carrinho: [ { nome: "Enrolado de Presunto e Queijo", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A131" s="11" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240524183130</v>
-      </c>
-      <c r="B131" s="11">
-        <v>108</v>
+      <c r="A131" s="17">
+        <f t="shared" ca="1" si="19"/>
+        <v>1717018289999.9998</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="C131" s="11">
         <v>11</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E131" s="11">
         <v>1</v>
@@ -6882,7 +6890,7 @@
         <v>19</v>
       </c>
       <c r="H131" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I131" s="11">
         <v>1</v>
@@ -6891,38 +6899,38 @@
         <v>2.5</v>
       </c>
       <c r="K131" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>17.5</v>
       </c>
       <c r="L131" s="19">
-        <f t="shared" ca="1" si="38"/>
-        <v>45436.771874999999</v>
+        <f t="shared" ca="1" si="37"/>
+        <v>45441.771874999999</v>
       </c>
       <c r="M131" s="17">
-        <f t="shared" ca="1" si="30"/>
-        <v>1716586289999.9998</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>1717018289999.9998</v>
       </c>
       <c r="N131" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R131" s="32" t="str">
+        <v>31</v>
+      </c>
+      <c r="R131" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>{ id: 20240524183130, usuario: 108, produtos: [ { id: 11, descricao: "Batata Frita", quantidade: 1, preco: 15 }, { id: 19, descricao: "Chicletes", quantidade: 1, preco: 2.5 }, ], valorTotal: 17.5, data: 1716586290000, status: "Concluído" },</v>
+        <v>{ id: 1717018290000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Batata Frita", quantidade: 1, preco: 15 }, { id: 19, descricao: "Chicletes", quantidade: 1, preco: 2.5 }, ] },</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A132" s="11" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>20240524182000</v>
-      </c>
-      <c r="B132" s="11">
-        <v>135</v>
+      <c r="A132" s="17">
+        <f t="shared" ref="A132" ca="1" si="38">M132</f>
+        <v>1717017600000.0002</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="C132" s="11">
         <v>15</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E132" s="11">
         <v>1</v>
@@ -6934,7 +6942,7 @@
         <v>17</v>
       </c>
       <c r="H132" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I132" s="11">
         <v>1</v>
@@ -6943,23 +6951,23 @@
         <v>3</v>
       </c>
       <c r="K132" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>7.5</v>
       </c>
       <c r="L132" s="19">
         <f ca="1">L128-13/60/24</f>
-        <v>45436.763888888891</v>
+        <v>45441.763888888891</v>
       </c>
       <c r="M132" s="17">
-        <f t="shared" ca="1" si="30"/>
-        <v>1716585600000.0002</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>1717017600000.0002</v>
       </c>
       <c r="N132" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R132" s="33" t="str">
-        <f t="shared" ref="R132" ca="1" si="39">CONCATENATE("{ id: ",A132,", usuario: ",B132,", produtos: [ ", "{ id: ",C132,", descricao: ","""",D132,"""",", quantidade: ",E132,", preco: ",SUBSTITUTE(F132,",",".")," },",IF(G132&lt;&gt;"",CONCATENATE(" { id: ",G132,", descricao: ","""",H132,"""",", quantidade: ",I132,", preco: ",SUBSTITUTE(J132,",",".")," },"),""), " ], valorTotal: ",SUBSTITUTE(K132,",","."),", data: ",M132,", status: ","""",N132,""""," },")</f>
-        <v>{ id: 20240524182000, usuario: 135, produtos: [ { id: 15, descricao: "Água", quantidade: 1, preco: 4.5 }, { id: 17, descricao: "Bombom", quantidade: 1, preco: 3 }, ], valorTotal: 7.5, data: 1716585600000, status: "Concluído" },</v>
+        <f t="shared" ref="R132" ca="1" si="39">CONCATENATE("{ id: ",A132,", email: """,B132,""", status: ","""",N132,""""," , carrinho: [ ", "{ nome: ","""",D132,"""",", quantidade: ",E132,", preco: ",SUBSTITUTE(F132,",",".")," },",IF(G132&lt;&gt;"",CONCATENATE(" { id: ",G132,", descricao: ","""",H132,"""",", quantidade: ",I132,", preco: ",SUBSTITUTE(J132,",",".")," },"),""), " ] },")</f>
+        <v>{ id: 1717017600000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Água", quantidade: 1, preco: 4.5 }, { id: 17, descricao: "Bombom", quantidade: 1, preco: 3 }, ] },</v>
       </c>
     </row>
   </sheetData>
@@ -6974,8 +6982,25 @@
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:J1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{3ADFDF58-C86E-44BD-BFF7-AF3DB4C0083B}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{E0BAD0E4-B3A9-4C86-A6B5-EAFDB393813C}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{7F3D91B6-BB53-44F3-9125-623570C085EE}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{D5ECB0D3-DFEC-448C-95DD-3B7E41D4C080}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{D2F97D30-E374-4C29-A9FD-B06AD1455BAE}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{5FBFA7A1-5A37-4E50-BB03-D81962681DA1}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{94DC4DDF-C861-4424-96F1-E445DD423913}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{E60FDF02-D9FB-4E0F-B121-BC0770BDF9FA}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{1A937738-1337-4270-A8D3-EFC1F084FA02}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{D515DFAB-7E17-434E-91C3-0E799E3951AE}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{5CF0B7A6-C48E-4FD5-9C61-E452D1A079D1}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{49B1BD55-6822-4B62-B37D-DBEA9B53E6B2}"/>
+    <hyperlink ref="B15" r:id="rId13" xr:uid="{77556C01-6B91-45FA-9EDC-982C73D9CD23}"/>
+    <hyperlink ref="B16" r:id="rId14" xr:uid="{849E8D0C-3607-43C2-9904-989DC7A2F239}"/>
+    <hyperlink ref="B17" r:id="rId15" xr:uid="{05508E1D-6D6C-48C6-882F-7ACDF1CDC7BC}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 

--- a/codigo/assets/script/pedidos_mock.xlsx
+++ b/codigo/assets/script/pedidos_mock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\Sprint-04\icei-pucminas-psg-si-n-tiaw-2024-1-grupo-1-reserva-de-lanches\codigo\assets\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E349590-1E5A-4071-BF05-541DFC044B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0576F13-28E1-45A3-A5BE-80B77D40EFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{4D1AFED7-1EDD-46E3-A830-15DC2F3F764B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{4D1AFED7-1EDD-46E3-A830-15DC2F3F764B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>pendente</t>
-  </si>
-  <si>
-    <t>cancelado</t>
   </si>
   <si>
     <t>aprovado</t>
@@ -393,7 +390,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -404,21 +416,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -759,7 +756,7 @@
   <dimension ref="A1:R132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,43 +783,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
+      <c r="B1" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
       <c r="K1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="28" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="R1" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="15" t="s">
         <v>0</v>
       </c>
@@ -848,18 +845,18 @@
         <v>4</v>
       </c>
       <c r="K2" s="30"/>
-      <c r="L2" s="25"/>
+      <c r="L2" s="28"/>
       <c r="M2" s="30"/>
-      <c r="N2" s="25"/>
-      <c r="R2" s="25"/>
+      <c r="N2" s="28"/>
+      <c r="R2" s="28"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <f ca="1">M3</f>
         <v>1719783180000.0002</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>33</v>
+      <c r="B3" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="C3" s="11">
         <v>2</v>
@@ -909,8 +906,8 @@
         <f t="shared" ref="A4:A67" ca="1" si="0">M4</f>
         <v>1719783150000</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>33</v>
+      <c r="B4" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="C4" s="11">
         <v>3</v>
@@ -968,8 +965,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>1719783120000</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>34</v>
+      <c r="B5" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="C5" s="11">
         <v>1</v>
@@ -1024,8 +1021,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>1719783089999.9998</v>
       </c>
-      <c r="B6" s="31" t="s">
-        <v>35</v>
+      <c r="B6" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="C6" s="11">
         <v>10</v>
@@ -1064,7 +1061,7 @@
         <v>1719783089999.9998</v>
       </c>
       <c r="N6" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R6" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1076,8 +1073,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>1719782400000.0002</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>35</v>
+      <c r="B7" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="C7" s="11">
         <v>5</v>
@@ -1108,7 +1105,7 @@
         <v>1719782400000.0002</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P7" s="18"/>
       <c r="R7" s="24" t="str">
@@ -1121,8 +1118,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>1719782220000.0002</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>34</v>
+      <c r="B8" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="C8" s="11">
         <v>6</v>
@@ -1153,7 +1150,7 @@
         <v>1719782220000.0002</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P8" s="19">
         <v>45450.999988425923</v>
@@ -1168,8 +1165,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>1719782040000.0002</v>
       </c>
-      <c r="B9" s="31" t="s">
-        <v>33</v>
+      <c r="B9" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="C9" s="11">
         <v>4</v>
@@ -1200,7 +1197,7 @@
         <v>1719782040000.0002</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P9" s="17">
         <f>(P8-$Q$5-0.875)*86400*1000</f>
@@ -1216,8 +1213,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>1719781860000.0002</v>
       </c>
-      <c r="B10" s="31" t="s">
-        <v>34</v>
+      <c r="B10" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="C10" s="11">
         <v>7</v>
@@ -1247,12 +1244,12 @@
         <f t="shared" ca="1" si="2"/>
         <v>1719781860000.0002</v>
       </c>
-      <c r="N10" s="21" t="s">
-        <v>29</v>
+      <c r="N10" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="R10" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 1719781860000, email: "aluno2@gmail.com", status: "cancelado" , carrinho: [ { nome: "Hamburgão", quantidade: 1, preco: 6.5 }, ] },</v>
+        <v>{ id: 1719781860000, email: "aluno2@gmail.com", status: "finalizado" , carrinho: [ { nome: "Hamburgão", quantidade: 1, preco: 6.5 }, ] },</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1260,8 +1257,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>1719781680000.0002</v>
       </c>
-      <c r="B11" s="31" t="s">
-        <v>35</v>
+      <c r="B11" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="C11" s="11">
         <v>4</v>
@@ -1300,7 +1297,7 @@
         <v>1719781680000.0002</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R11" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1312,8 +1309,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>1719781500000.0002</v>
       </c>
-      <c r="B12" s="31" t="s">
-        <v>34</v>
+      <c r="B12" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="C12" s="11">
         <v>10</v>
@@ -1352,7 +1349,7 @@
         <v>1719781500000.0002</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R12" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1364,8 +1361,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>1719696780000.0002</v>
       </c>
-      <c r="B13" s="32" t="s">
-        <v>33</v>
+      <c r="B13" s="26" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="2">
         <v>5</v>
@@ -1396,7 +1393,7 @@
         <v>1719696780000.0002</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R13" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1408,8 +1405,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>1719696750000</v>
       </c>
-      <c r="B14" s="32" t="s">
-        <v>33</v>
+      <c r="B14" s="26" t="s">
+        <v>32</v>
       </c>
       <c r="C14" s="2">
         <v>8</v>
@@ -1448,7 +1445,7 @@
         <v>1719696750000</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R14" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1460,8 +1457,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>1719696720000</v>
       </c>
-      <c r="B15" s="32" t="s">
-        <v>34</v>
+      <c r="B15" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="C15" s="2">
         <v>9</v>
@@ -1492,7 +1489,7 @@
         <v>1719696720000</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R15" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1504,8 +1501,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>1719696689999.9998</v>
       </c>
-      <c r="B16" s="32" t="s">
-        <v>35</v>
+      <c r="B16" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="C16" s="2">
         <v>11</v>
@@ -1544,7 +1541,7 @@
         <v>1719696689999.9998</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R16" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1556,8 +1553,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>1719696000000.0002</v>
       </c>
-      <c r="B17" s="32" t="s">
-        <v>35</v>
+      <c r="B17" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="C17" s="2">
         <v>15</v>
@@ -1596,7 +1593,7 @@
         <v>1719696000000.0002</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R17" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1609,7 +1606,7 @@
         <v>1719610380000.0002</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="11">
         <v>16</v>
@@ -1640,7 +1637,7 @@
         <v>1719610380000.0002</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P18" s="3"/>
       <c r="R18" s="24" t="str">
@@ -1654,7 +1651,7 @@
         <v>1719610350000</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="11">
         <v>4</v>
@@ -1693,7 +1690,7 @@
         <v>1719610350000</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P19" s="3"/>
       <c r="R19" s="24" t="str">
@@ -1707,7 +1704,7 @@
         <v>1719610320000</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="11">
         <v>2</v>
@@ -1738,7 +1735,7 @@
         <v>1719610320000</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R20" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1751,7 +1748,7 @@
         <v>1719610289999.9998</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="11">
         <v>14</v>
@@ -1782,7 +1779,7 @@
         <v>1719610289999.9998</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R21" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1795,7 +1792,7 @@
         <v>1719609600000.0002</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="11">
         <v>5</v>
@@ -1826,7 +1823,7 @@
         <v>1719609600000.0002</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P22" s="23"/>
       <c r="R22" s="24" t="str">
@@ -1840,7 +1837,7 @@
         <v>1719523980000.0002</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="2">
         <v>6</v>
@@ -1871,7 +1868,7 @@
         <v>1719523980000.0002</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R23" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1884,7 +1881,7 @@
         <v>1719523950000</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="2">
         <v>7</v>
@@ -1923,7 +1920,7 @@
         <v>1719523950000</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R24" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1936,7 +1933,7 @@
         <v>1719523920000</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="2">
         <v>5</v>
@@ -1966,12 +1963,12 @@
         <f t="shared" ca="1" si="2"/>
         <v>1719523920000</v>
       </c>
-      <c r="N25" s="21" t="s">
-        <v>29</v>
+      <c r="N25" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="R25" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 1719523920000, email: "aluno2@gmail.com", status: "cancelado" , carrinho: [ { nome: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, ] },</v>
+        <v>{ id: 1719523920000, email: "aluno2@gmail.com", status: "finalizado" , carrinho: [ { nome: "Pão de Queijo Recheado", quantidade: 1, preco: 5 }, ] },</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -1980,7 +1977,7 @@
         <v>1719523889999.9998</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="2">
         <v>5</v>
@@ -2011,7 +2008,7 @@
         <v>1719523889999.9998</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R26" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2024,7 +2021,7 @@
         <v>1719523200000.0002</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -2063,7 +2060,7 @@
         <v>1719523200000.0002</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R27" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2076,7 +2073,7 @@
         <v>1719437580000.0002</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="11">
         <v>7</v>
@@ -2107,7 +2104,7 @@
         <v>1719437580000.0002</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R28" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2120,7 +2117,7 @@
         <v>1719437550000</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="11">
         <v>10</v>
@@ -2151,7 +2148,7 @@
         <v>1719437550000</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R29" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2164,7 +2161,7 @@
         <v>1719437520000</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="11">
         <v>4</v>
@@ -2203,7 +2200,7 @@
         <v>1719437520000</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R30" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2216,7 +2213,7 @@
         <v>1719437489999.9998</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="11">
         <v>15</v>
@@ -2247,7 +2244,7 @@
         <v>1719437489999.9998</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R31" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2260,7 +2257,7 @@
         <v>1719436800000.0002</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="11">
         <v>6</v>
@@ -2291,7 +2288,7 @@
         <v>1719436800000.0002</v>
       </c>
       <c r="N32" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R32" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2304,7 +2301,7 @@
         <v>1719178380000.0002</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="2">
         <v>8</v>
@@ -2335,7 +2332,7 @@
         <v>1719178380000.0002</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R33" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2348,7 +2345,7 @@
         <v>1719178350000</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -2387,7 +2384,7 @@
         <v>1719178350000</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R34" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2400,7 +2397,7 @@
         <v>1719178320000</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="2">
         <v>14</v>
@@ -2431,7 +2428,7 @@
         <v>1719178320000</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R35" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2444,7 +2441,7 @@
         <v>1719178289999.9998</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="2">
         <v>14</v>
@@ -2475,7 +2472,7 @@
         <v>1719178289999.9998</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R36" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2488,7 +2485,7 @@
         <v>1719177600000.0002</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="2">
         <v>5</v>
@@ -2519,7 +2516,7 @@
         <v>1719177600000.0002</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R37" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2532,7 +2529,7 @@
         <v>1719091980000.0002</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C38" s="11">
         <v>3</v>
@@ -2571,7 +2568,7 @@
         <v>1719091980000.0002</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R38" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2584,7 +2581,7 @@
         <v>1719091950000</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" s="11">
         <v>5</v>
@@ -2615,7 +2612,7 @@
         <v>1719091950000</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R39" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2628,7 +2625,7 @@
         <v>1719091920000</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" s="11">
         <v>14</v>
@@ -2659,7 +2656,7 @@
         <v>1719091920000</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R40" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2672,7 +2669,7 @@
         <v>1719091889999.9998</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C41" s="11">
         <v>7</v>
@@ -2703,7 +2700,7 @@
         <v>1719091889999.9998</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R41" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2716,7 +2713,7 @@
         <v>1719091200000.0002</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42" s="11">
         <v>10</v>
@@ -2754,12 +2751,12 @@
         <f t="shared" ca="1" si="2"/>
         <v>1719091200000.0002</v>
       </c>
-      <c r="N42" s="21" t="s">
-        <v>29</v>
+      <c r="N42" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="R42" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{ id: 1719091200000, email: "aluno3@gmail.com", status: "cancelado" , carrinho: [ { nome: "Hambúrguer", quantidade: 1, preco: 12 }, { id: 12, descricao: "Refrigerante", quantidade: 1, preco: 6 }, ] },</v>
+        <v>{ id: 1719091200000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Hambúrguer", quantidade: 1, preco: 12 }, { id: 12, descricao: "Refrigerante", quantidade: 1, preco: 6 }, ] },</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -2768,7 +2765,7 @@
         <v>1719005580000.0002</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C43" s="2">
         <v>4</v>
@@ -2799,7 +2796,7 @@
         <v>1719005580000.0002</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R43" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2812,7 +2809,7 @@
         <v>1719005550000</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C44" s="2">
         <v>14</v>
@@ -2843,7 +2840,7 @@
         <v>1719005550000</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R44" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2856,7 +2853,7 @@
         <v>1719005520000</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C45" s="2">
         <v>4</v>
@@ -2887,7 +2884,7 @@
         <v>1719005520000</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R45" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2900,7 +2897,7 @@
         <v>1719005489999.9998</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C46" s="2">
         <v>3</v>
@@ -2939,7 +2936,7 @@
         <v>1719005489999.9998</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R46" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2952,7 +2949,7 @@
         <v>1719004800000.0002</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C47" s="2">
         <v>8</v>
@@ -2983,7 +2980,7 @@
         <v>1719004800000.0002</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R47" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2996,7 +2993,7 @@
         <v>1718919180000.0002</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C48" s="11">
         <v>4</v>
@@ -3027,7 +3024,7 @@
         <v>1718919180000.0002</v>
       </c>
       <c r="N48" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R48" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3040,7 +3037,7 @@
         <v>1718919150000</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C49" s="11">
         <v>14</v>
@@ -3071,7 +3068,7 @@
         <v>1718919150000</v>
       </c>
       <c r="N49" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R49" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3084,7 +3081,7 @@
         <v>1718919120000</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C50" s="11">
         <v>7</v>
@@ -3123,7 +3120,7 @@
         <v>1718919120000</v>
       </c>
       <c r="N50" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R50" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3136,7 +3133,7 @@
         <v>1718919089999.9998</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C51" s="11">
         <v>10</v>
@@ -3167,7 +3164,7 @@
         <v>1718919089999.9998</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R51" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3180,7 +3177,7 @@
         <v>1718918400000.0002</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C52" s="11">
         <v>5</v>
@@ -3219,7 +3216,7 @@
         <v>1718918400000.0002</v>
       </c>
       <c r="N52" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R52" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3232,7 +3229,7 @@
         <v>1718832780000.0002</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C53" s="2">
         <v>10</v>
@@ -3263,7 +3260,7 @@
         <v>1718832780000.0002</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R53" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3276,7 +3273,7 @@
         <v>1718832750000</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C54" s="2">
         <v>14</v>
@@ -3307,7 +3304,7 @@
         <v>1718832750000</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R54" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3320,7 +3317,7 @@
         <v>1718832720000</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C55" s="2">
         <v>4</v>
@@ -3351,7 +3348,7 @@
         <v>1718832720000</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R55" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3364,7 +3361,7 @@
         <v>1718832689999.9998</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C56" s="2">
         <v>15</v>
@@ -3403,7 +3400,7 @@
         <v>1718832689999.9998</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R56" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3416,7 +3413,7 @@
         <v>1718832000000.0002</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C57" s="2">
         <v>6</v>
@@ -3447,7 +3444,7 @@
         <v>1718832000000.0002</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R57" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3460,7 +3457,7 @@
         <v>1718573580000.0002</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C58" s="11">
         <v>4</v>
@@ -3491,7 +3488,7 @@
         <v>1718573580000.0002</v>
       </c>
       <c r="N58" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R58" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3504,7 +3501,7 @@
         <v>1718573550000</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C59" s="11">
         <v>1</v>
@@ -3535,7 +3532,7 @@
         <v>1718573550000</v>
       </c>
       <c r="N59" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R59" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3548,7 +3545,7 @@
         <v>1718573520000</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C60" s="11">
         <v>7</v>
@@ -3587,7 +3584,7 @@
         <v>1718573520000</v>
       </c>
       <c r="N60" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R60" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3600,7 +3597,7 @@
         <v>1718573489999.9998</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C61" s="11">
         <v>2</v>
@@ -3631,7 +3628,7 @@
         <v>1718573489999.9998</v>
       </c>
       <c r="N61" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R61" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3644,7 +3641,7 @@
         <v>1718572800000.0002</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C62" s="11">
         <v>15</v>
@@ -3675,7 +3672,7 @@
         <v>1718572800000.0002</v>
       </c>
       <c r="N62" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R62" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3688,7 +3685,7 @@
         <v>1718487180000.0002</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C63" s="2">
         <v>4</v>
@@ -3719,7 +3716,7 @@
         <v>1718487180000.0002</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R63" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3732,7 +3729,7 @@
         <v>1718487150000</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C64" s="2">
         <v>6</v>
@@ -3771,7 +3768,7 @@
         <v>1718487150000</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R64" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3784,7 +3781,7 @@
         <v>1718487120000</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C65" s="2">
         <v>5</v>
@@ -3815,7 +3812,7 @@
         <v>1718487120000</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R65" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3828,7 +3825,7 @@
         <v>1718487089999.9998</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C66" s="2">
         <v>3</v>
@@ -3867,7 +3864,7 @@
         <v>1718487089999.9998</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R66" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3880,7 +3877,7 @@
         <v>1718486400000.0002</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C67" s="2">
         <v>8</v>
@@ -3911,7 +3908,7 @@
         <v>1718486400000.0002</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R67" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3924,7 +3921,7 @@
         <v>1718400780000.0002</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C68" s="11">
         <v>4</v>
@@ -3955,7 +3952,7 @@
         <v>1718400780000.0002</v>
       </c>
       <c r="N68" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R68" s="24" t="str">
         <f t="shared" ref="R68:R131" ca="1" si="22">CONCATENATE("{ id: ",A68,", email: """,B68,""", status: ","""",N68,""""," , carrinho: [ ", "{ nome: ","""",D68,"""",", quantidade: ",E68,", preco: ",SUBSTITUTE(F68,",",".")," },",IF(G68&lt;&gt;"",CONCATENATE(" { id: ",G68,", descricao: ","""",H68,"""",", quantidade: ",I68,", preco: ",SUBSTITUTE(J68,",",".")," },"),""), " ] },")</f>
@@ -3968,7 +3965,7 @@
         <v>1718400750000</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C69" s="11">
         <v>1</v>
@@ -3999,7 +3996,7 @@
         <v>1718400750000</v>
       </c>
       <c r="N69" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R69" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -4012,7 +4009,7 @@
         <v>1718400720000</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C70" s="11">
         <v>5</v>
@@ -4051,7 +4048,7 @@
         <v>1718400720000</v>
       </c>
       <c r="N70" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R70" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -4064,7 +4061,7 @@
         <v>1718400689999.9998</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C71" s="11">
         <v>2</v>
@@ -4095,7 +4092,7 @@
         <v>1718400689999.9998</v>
       </c>
       <c r="N71" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R71" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -4108,7 +4105,7 @@
         <v>1718400000000.0002</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C72" s="11">
         <v>14</v>
@@ -4139,7 +4136,7 @@
         <v>1718400000000.0002</v>
       </c>
       <c r="N72" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R72" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -4152,7 +4149,7 @@
         <v>1718314380000.0002</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C73" s="2">
         <v>4</v>
@@ -4183,7 +4180,7 @@
         <v>1718314380000.0002</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R73" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -4196,7 +4193,7 @@
         <v>1718314350000</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C74" s="2">
         <v>8</v>
@@ -4235,7 +4232,7 @@
         <v>1718314350000</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R74" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -4248,7 +4245,7 @@
         <v>1718314320000</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C75" s="2">
         <v>5</v>
@@ -4279,7 +4276,7 @@
         <v>1718314320000</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R75" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -4292,7 +4289,7 @@
         <v>1718314289999.9998</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C76" s="2">
         <v>7</v>
@@ -4331,7 +4328,7 @@
         <v>1718314289999.9998</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R76" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -4344,7 +4341,7 @@
         <v>1718313600000.0002</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C77" s="2">
         <v>8</v>
@@ -4375,7 +4372,7 @@
         <v>1718313600000.0002</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R77" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -4388,7 +4385,7 @@
         <v>1718227980000.0002</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C78" s="11">
         <v>5</v>
@@ -4419,7 +4416,7 @@
         <v>1718227980000.0002</v>
       </c>
       <c r="N78" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R78" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -4432,7 +4429,7 @@
         <v>1718227950000</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C79" s="11">
         <v>8</v>
@@ -4471,7 +4468,7 @@
         <v>1718227950000</v>
       </c>
       <c r="N79" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R79" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -4484,7 +4481,7 @@
         <v>1718227920000</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C80" s="11">
         <v>9</v>
@@ -4515,7 +4512,7 @@
         <v>1718227920000</v>
       </c>
       <c r="N80" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R80" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -4528,7 +4525,7 @@
         <v>1718227889999.9998</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C81" s="11">
         <v>11</v>
@@ -4567,7 +4564,7 @@
         <v>1718227889999.9998</v>
       </c>
       <c r="N81" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R81" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -4580,7 +4577,7 @@
         <v>1718227200000.0002</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C82" s="11">
         <v>15</v>
@@ -4619,7 +4616,7 @@
         <v>1718227200000.0002</v>
       </c>
       <c r="N82" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R82" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -4632,7 +4629,7 @@
         <v>1717968780000.0002</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C83" s="11">
         <v>4</v>
@@ -4663,7 +4660,7 @@
         <v>1717968780000.0002</v>
       </c>
       <c r="N83" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R83" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -4676,7 +4673,7 @@
         <v>1717968750000</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C84" s="11">
         <v>1</v>
@@ -4707,7 +4704,7 @@
         <v>1717968750000</v>
       </c>
       <c r="N84" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R84" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -4720,7 +4717,7 @@
         <v>1717968720000</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C85" s="11">
         <v>7</v>
@@ -4759,7 +4756,7 @@
         <v>1717968720000</v>
       </c>
       <c r="N85" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R85" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -4772,7 +4769,7 @@
         <v>1717968689999.9998</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C86" s="11">
         <v>2</v>
@@ -4803,7 +4800,7 @@
         <v>1717968689999.9998</v>
       </c>
       <c r="N86" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R86" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -4816,7 +4813,7 @@
         <v>1717968000000.0002</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C87" s="11">
         <v>15</v>
@@ -4847,7 +4844,7 @@
         <v>1717968000000.0002</v>
       </c>
       <c r="N87" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R87" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -4860,7 +4857,7 @@
         <v>1717882380000.0002</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C88" s="2">
         <v>4</v>
@@ -4891,7 +4888,7 @@
         <v>1717882380000.0002</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R88" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -4904,7 +4901,7 @@
         <v>1717882350000</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C89" s="2">
         <v>6</v>
@@ -4943,7 +4940,7 @@
         <v>1717882350000</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R89" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -4956,7 +4953,7 @@
         <v>1717882320000</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C90" s="2">
         <v>5</v>
@@ -4987,7 +4984,7 @@
         <v>1717882320000</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R90" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5000,7 +4997,7 @@
         <v>1717882289999.9998</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C91" s="2">
         <v>3</v>
@@ -5039,7 +5036,7 @@
         <v>1717882289999.9998</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R91" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5052,7 +5049,7 @@
         <v>1717881600000.0002</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C92" s="2">
         <v>8</v>
@@ -5083,7 +5080,7 @@
         <v>1717881600000.0002</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R92" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5096,7 +5093,7 @@
         <v>1717795980000.0002</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C93" s="11">
         <v>4</v>
@@ -5127,7 +5124,7 @@
         <v>1717795980000.0002</v>
       </c>
       <c r="N93" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R93" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5140,7 +5137,7 @@
         <v>1717795950000</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C94" s="11">
         <v>1</v>
@@ -5171,7 +5168,7 @@
         <v>1717795950000</v>
       </c>
       <c r="N94" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R94" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5184,7 +5181,7 @@
         <v>1717795920000</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C95" s="11">
         <v>5</v>
@@ -5223,7 +5220,7 @@
         <v>1717795920000</v>
       </c>
       <c r="N95" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R95" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5236,7 +5233,7 @@
         <v>1717795889999.9998</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C96" s="11">
         <v>2</v>
@@ -5267,7 +5264,7 @@
         <v>1717795889999.9998</v>
       </c>
       <c r="N96" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R96" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5280,7 +5277,7 @@
         <v>1717795200000.0002</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C97" s="11">
         <v>14</v>
@@ -5311,7 +5308,7 @@
         <v>1717795200000.0002</v>
       </c>
       <c r="N97" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R97" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5324,7 +5321,7 @@
         <v>1717709580000.0002</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C98" s="2">
         <v>4</v>
@@ -5355,7 +5352,7 @@
         <v>1717709580000.0002</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R98" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5368,7 +5365,7 @@
         <v>1717709550000</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C99" s="2">
         <v>8</v>
@@ -5407,7 +5404,7 @@
         <v>1717709550000</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R99" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5420,7 +5417,7 @@
         <v>1717709520000</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C100" s="2">
         <v>5</v>
@@ -5451,7 +5448,7 @@
         <v>1717709520000</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R100" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5464,7 +5461,7 @@
         <v>1717709489999.9998</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C101" s="2">
         <v>7</v>
@@ -5503,7 +5500,7 @@
         <v>1717709489999.9998</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R101" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5516,7 +5513,7 @@
         <v>1717708800000.0002</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C102" s="2">
         <v>8</v>
@@ -5547,7 +5544,7 @@
         <v>1717708800000.0002</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R102" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5560,7 +5557,7 @@
         <v>1717623180000.0002</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C103" s="11">
         <v>5</v>
@@ -5591,7 +5588,7 @@
         <v>1717623180000.0002</v>
       </c>
       <c r="N103" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R103" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5604,7 +5601,7 @@
         <v>1717623150000</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C104" s="11">
         <v>8</v>
@@ -5643,7 +5640,7 @@
         <v>1717623150000</v>
       </c>
       <c r="N104" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R104" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5656,7 +5653,7 @@
         <v>1717623120000</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C105" s="11">
         <v>9</v>
@@ -5687,7 +5684,7 @@
         <v>1717623120000</v>
       </c>
       <c r="N105" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R105" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5700,7 +5697,7 @@
         <v>1717623089999.9998</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C106" s="11">
         <v>11</v>
@@ -5739,7 +5736,7 @@
         <v>1717623089999.9998</v>
       </c>
       <c r="N106" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R106" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5752,7 +5749,7 @@
         <v>1717622400000.0002</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C107" s="11">
         <v>15</v>
@@ -5791,7 +5788,7 @@
         <v>1717622400000.0002</v>
       </c>
       <c r="N107" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R107" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5804,7 +5801,7 @@
         <v>1717363980000.0002</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C108" s="11">
         <v>4</v>
@@ -5835,7 +5832,7 @@
         <v>1717363980000.0002</v>
       </c>
       <c r="N108" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R108" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5848,7 +5845,7 @@
         <v>1717363950000</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C109" s="11">
         <v>1</v>
@@ -5879,7 +5876,7 @@
         <v>1717363950000</v>
       </c>
       <c r="N109" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R109" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5892,7 +5889,7 @@
         <v>1717363920000</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C110" s="11">
         <v>7</v>
@@ -5931,7 +5928,7 @@
         <v>1717363920000</v>
       </c>
       <c r="N110" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R110" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5944,7 +5941,7 @@
         <v>1717363889999.9998</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C111" s="11">
         <v>2</v>
@@ -5975,7 +5972,7 @@
         <v>1717363889999.9998</v>
       </c>
       <c r="N111" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R111" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -5988,7 +5985,7 @@
         <v>1717363200000.0002</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C112" s="11">
         <v>15</v>
@@ -6019,7 +6016,7 @@
         <v>1717363200000.0002</v>
       </c>
       <c r="N112" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R112" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -6032,7 +6029,7 @@
         <v>1717277580000.0002</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C113" s="2">
         <v>4</v>
@@ -6063,7 +6060,7 @@
         <v>1717277580000.0002</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R113" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -6076,7 +6073,7 @@
         <v>1717277550000</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C114" s="2">
         <v>6</v>
@@ -6115,7 +6112,7 @@
         <v>1717277550000</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R114" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -6128,7 +6125,7 @@
         <v>1717277520000</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C115" s="2">
         <v>5</v>
@@ -6159,7 +6156,7 @@
         <v>1717277520000</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R115" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -6172,7 +6169,7 @@
         <v>1717277489999.9998</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C116" s="2">
         <v>3</v>
@@ -6211,7 +6208,7 @@
         <v>1717277489999.9998</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R116" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -6224,7 +6221,7 @@
         <v>1717276800000.0002</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C117" s="2">
         <v>8</v>
@@ -6255,7 +6252,7 @@
         <v>1717276800000.0002</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R117" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -6268,7 +6265,7 @@
         <v>1717191180000.0002</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C118" s="11">
         <v>4</v>
@@ -6299,7 +6296,7 @@
         <v>1717191180000.0002</v>
       </c>
       <c r="N118" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R118" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -6312,7 +6309,7 @@
         <v>1717191150000</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C119" s="11">
         <v>1</v>
@@ -6343,7 +6340,7 @@
         <v>1717191150000</v>
       </c>
       <c r="N119" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R119" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -6356,7 +6353,7 @@
         <v>1717191120000</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C120" s="11">
         <v>5</v>
@@ -6395,7 +6392,7 @@
         <v>1717191120000</v>
       </c>
       <c r="N120" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R120" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -6408,7 +6405,7 @@
         <v>1717191089999.9998</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C121" s="11">
         <v>2</v>
@@ -6439,7 +6436,7 @@
         <v>1717191089999.9998</v>
       </c>
       <c r="N121" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R121" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -6452,7 +6449,7 @@
         <v>1717190400000.0002</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C122" s="11">
         <v>14</v>
@@ -6483,7 +6480,7 @@
         <v>1717190400000.0002</v>
       </c>
       <c r="N122" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R122" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -6496,7 +6493,7 @@
         <v>1717104780000.0002</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C123" s="2">
         <v>4</v>
@@ -6527,7 +6524,7 @@
         <v>1717104780000.0002</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R123" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -6540,7 +6537,7 @@
         <v>1717104750000</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C124" s="2">
         <v>8</v>
@@ -6579,7 +6576,7 @@
         <v>1717104750000</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R124" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -6592,7 +6589,7 @@
         <v>1717104720000</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C125" s="2">
         <v>5</v>
@@ -6623,7 +6620,7 @@
         <v>1717104720000</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R125" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -6636,7 +6633,7 @@
         <v>1717104689999.9998</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C126" s="2">
         <v>7</v>
@@ -6675,7 +6672,7 @@
         <v>1717104689999.9998</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R126" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -6688,7 +6685,7 @@
         <v>1717104000000.0002</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C127" s="2">
         <v>8</v>
@@ -6719,7 +6716,7 @@
         <v>1717104000000.0002</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R127" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -6732,7 +6729,7 @@
         <v>1717018380000.0002</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C128" s="11">
         <v>5</v>
@@ -6763,7 +6760,7 @@
         <v>1717018380000.0002</v>
       </c>
       <c r="N128" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R128" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -6776,7 +6773,7 @@
         <v>1717018350000</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C129" s="11">
         <v>8</v>
@@ -6815,7 +6812,7 @@
         <v>1717018350000</v>
       </c>
       <c r="N129" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R129" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -6828,7 +6825,7 @@
         <v>1717018320000</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C130" s="11">
         <v>9</v>
@@ -6859,7 +6856,7 @@
         <v>1717018320000</v>
       </c>
       <c r="N130" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R130" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -6872,7 +6869,7 @@
         <v>1717018289999.9998</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C131" s="11">
         <v>11</v>
@@ -6911,7 +6908,7 @@
         <v>1717018289999.9998</v>
       </c>
       <c r="N131" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R131" s="24" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -6924,7 +6921,7 @@
         <v>1717017600000.0002</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C132" s="11">
         <v>15</v>
@@ -6963,9 +6960,9 @@
         <v>1717017600000.0002</v>
       </c>
       <c r="N132" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="R132" s="33" t="str">
+        <v>30</v>
+      </c>
+      <c r="R132" s="27" t="str">
         <f t="shared" ref="R132" ca="1" si="39">CONCATENATE("{ id: ",A132,", email: """,B132,""", status: ","""",N132,""""," , carrinho: [ ", "{ nome: ","""",D132,"""",", quantidade: ",E132,", preco: ",SUBSTITUTE(F132,",",".")," },",IF(G132&lt;&gt;"",CONCATENATE(" { id: ",G132,", descricao: ","""",H132,"""",", quantidade: ",I132,", preco: ",SUBSTITUTE(J132,",",".")," },"),""), " ] },")</f>
         <v>{ id: 1717017600000, email: "aluno3@gmail.com", status: "finalizado" , carrinho: [ { nome: "Água", quantidade: 1, preco: 4.5 }, { id: 17, descricao: "Bombom", quantidade: 1, preco: 3 }, ] },</v>
       </c>
